--- a/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
   <si>
     <t>Source</t>
   </si>
@@ -405,12 +405,6 @@
   </si>
   <si>
     <t>Page</t>
-  </si>
-  <si>
-    <t>Set output LNG</t>
-  </si>
-  <si>
-    <t>Set to 1 due to initialisation constraints</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1235,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1326,9 +1320,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -1468,6 +1459,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="26" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1504,7 +1496,6 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="273">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2564,105 +2555,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="94"/>
+      <c r="C9" s="93"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="94"/>
+      <c r="C10" s="95"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="96" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="95"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="98" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="97" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="96" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="98" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="100" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="99" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="101" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="100" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="102" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="101" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104" t="s">
+      <c r="B20" s="102"/>
+      <c r="C20" s="103" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="105" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="104" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="106" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="105" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="103"/>
-      <c r="C23" s="107" t="s">
+      <c r="B23" s="102"/>
+      <c r="C23" s="106" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2684,7 +2675,7 @@
   </sheetPr>
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2780,7 +2771,7 @@
       <c r="I9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="114"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="2:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
@@ -2808,22 +2799,22 @@
     </row>
     <row r="12" spans="2:11" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="127" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="133">
         <f>'Research data'!H7</f>
-        <v>1</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="F12" s="40"/>
-      <c r="G12" s="128" t="s">
+      <c r="G12" s="127" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="147" t="s">
         <v>117</v>
       </c>
       <c r="J12" s="14"/>
@@ -2837,7 +2828,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
-      <c r="J13" s="115"/>
+      <c r="J13" s="114"/>
       <c r="K13" s="37"/>
     </row>
     <row r="14" spans="2:11" ht="16" thickBot="1">
@@ -2851,7 +2842,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="115"/>
+      <c r="J14" s="114"/>
       <c r="K14" s="37"/>
     </row>
     <row r="15" spans="2:11" ht="16" thickBot="1">
@@ -2871,10 +2862,10 @@
         <v>6</v>
       </c>
       <c r="H15" s="40"/>
-      <c r="I15" s="148" t="s">
+      <c r="I15" s="147" t="s">
         <v>116</v>
       </c>
-      <c r="J15" s="115"/>
+      <c r="J15" s="114"/>
     </row>
     <row r="16" spans="2:11" ht="16" thickBot="1">
       <c r="B16" s="41"/>
@@ -2884,7 +2875,7 @@
       <c r="D16" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="113">
+      <c r="E16" s="112">
         <f>'Research data'!L11</f>
         <v>40252688.618643649</v>
       </c>
@@ -2893,56 +2884,56 @@
         <v>26</v>
       </c>
       <c r="H16" s="40"/>
-      <c r="I16" s="148" t="s">
+      <c r="I16" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="115"/>
+      <c r="J16" s="114"/>
     </row>
     <row r="17" spans="2:10" ht="16" thickBot="1">
       <c r="B17" s="41"/>
-      <c r="C17" s="145" t="s">
+      <c r="C17" s="144" t="s">
         <v>113</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="153">
+      <c r="E17" s="152">
         <f>'Research data'!H12</f>
         <v>1.1261202185792348E-4</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="145" t="s">
+      <c r="G17" s="144" t="s">
         <v>111</v>
       </c>
       <c r="H17" s="40"/>
-      <c r="I17" s="148" t="s">
+      <c r="I17" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="115"/>
+      <c r="J17" s="114"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="41"/>
       <c r="C18" s="37"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="117"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="115"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="114"/>
     </row>
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="115"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="114"/>
     </row>
     <row r="20" spans="2:10" ht="16" thickBot="1">
       <c r="B20" s="41"/>
@@ -2957,14 +2948,14 @@
         <v>40</v>
       </c>
       <c r="F20" s="40"/>
-      <c r="G20" s="91" t="s">
+      <c r="G20" s="90" t="s">
         <v>29</v>
       </c>
       <c r="H20" s="40"/>
-      <c r="I20" s="130" t="s">
+      <c r="I20" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="115"/>
+      <c r="J20" s="114"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="41"/>
@@ -2981,7 +2972,7 @@
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="35"/>
-      <c r="J21" s="115"/>
+      <c r="J21" s="114"/>
     </row>
     <row r="22" spans="2:10" ht="16" thickBot="1">
       <c r="B22" s="43"/>
@@ -3047,8 +3038,8 @@
   </sheetPr>
   <dimension ref="B2:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3100,40 +3091,33 @@
     </row>
     <row r="4" spans="2:20" s="26" customFormat="1">
       <c r="B4" s="25"/>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109" t="s">
+      <c r="G4" s="108"/>
+      <c r="H4" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109" t="s">
+      <c r="I4" s="108"/>
+      <c r="J4" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109" t="s">
+      <c r="K4" s="108"/>
+      <c r="L4" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109" t="s">
+      <c r="M4" s="108"/>
+      <c r="N4" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109" t="s">
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="108" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3151,8 +3135,7 @@
       <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="56"/>
-      <c r="R5" s="50"/>
-      <c r="T5" s="65"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="2:20" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="49"/>
@@ -3172,46 +3155,35 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="63"/>
+      <c r="Q6" s="62"/>
     </row>
     <row r="7" spans="2:20" ht="16" thickBot="1">
       <c r="B7" s="49"/>
-      <c r="C7" s="129" t="s">
+      <c r="C7" s="128" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="58"/>
-      <c r="F7" s="131" t="s">
+      <c r="F7" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="110"/>
-      <c r="H7" s="133">
+      <c r="G7" s="109"/>
+      <c r="H7" s="132">
         <f>J7</f>
-        <v>1</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="I7" s="54"/>
-      <c r="J7" s="133">
-        <f>Notes!E48</f>
-        <v>1</v>
+      <c r="J7" s="132">
+        <f>Notes!E47</f>
+        <v>0.98499999999999999</v>
       </c>
       <c r="K7" s="54"/>
-      <c r="L7" s="64"/>
+      <c r="L7" s="63"/>
       <c r="M7" s="54"/>
-      <c r="N7" s="64"/>
+      <c r="N7" s="63"/>
       <c r="O7" s="50"/>
-      <c r="P7" s="59">
-        <f>Notes!$E$46</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="166" t="s">
-        <v>122</v>
-      </c>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="153"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="49"/>
@@ -3219,20 +3191,17 @@
       <c r="D8" s="58"/>
       <c r="E8" s="58"/>
       <c r="F8" s="52"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="64"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
       <c r="K8" s="54"/>
-      <c r="L8" s="64"/>
+      <c r="L8" s="63"/>
       <c r="M8" s="54"/>
-      <c r="N8" s="64"/>
+      <c r="N8" s="63"/>
       <c r="O8" s="50"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="69"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="68"/>
     </row>
     <row r="9" spans="2:20" ht="16" thickBot="1">
       <c r="B9" s="49"/>
@@ -3252,145 +3221,130 @@
       <c r="N9" s="50"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="69"/>
+      <c r="Q9" s="68"/>
     </row>
     <row r="10" spans="2:20" ht="16" thickBot="1">
       <c r="B10" s="49"/>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="149" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="111"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="55">
         <f>N10</f>
         <v>1090000000</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="K10" s="67"/>
-      <c r="M10" s="67"/>
+      <c r="K10" s="66"/>
+      <c r="M10" s="66"/>
       <c r="N10" s="55">
         <f>Notes!E19+Notes!E13</f>
         <v>1090000000</v>
       </c>
       <c r="O10" s="50"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="137" t="s">
+      <c r="P10" s="50"/>
+      <c r="Q10" s="136" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="16" thickBot="1">
       <c r="B11" s="49"/>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="108" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="112"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="55">
         <f>L11</f>
         <v>40252688.618643649</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="K11" s="62"/>
+      <c r="I11" s="61"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="55">
         <f>Notes!E73</f>
         <v>40252688.618643649</v>
       </c>
-      <c r="M11" s="62"/>
+      <c r="M11" s="61"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="55">
-        <f>Notes!E39</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="50"/>
-      <c r="T11" s="53"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="53"/>
     </row>
     <row r="12" spans="2:20" ht="16" thickBot="1">
       <c r="B12" s="49"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="151" t="s">
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="152">
+      <c r="G12" s="111"/>
+      <c r="H12" s="151">
         <f>L12</f>
         <v>1.1261202185792348E-4</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="152">
+      <c r="I12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="151">
         <f>Notes!E80</f>
         <v>1.1261202185792348E-4</v>
       </c>
-      <c r="M12" s="62"/>
+      <c r="M12" s="61"/>
       <c r="N12" s="50"/>
       <c r="O12" s="50"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="137" t="s">
+      <c r="P12" s="50"/>
+      <c r="Q12" s="136" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="49"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="65"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="64"/>
     </row>
     <row r="14" spans="2:20" ht="16" thickBot="1">
       <c r="B14" s="49"/>
       <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="68"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="67"/>
     </row>
     <row r="15" spans="2:20" ht="16" thickBot="1">
       <c r="B15" s="49"/>
-      <c r="C15" s="129" t="s">
+      <c r="C15" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="132" t="s">
+      <c r="F15" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="60">
         <f>L15</f>
         <v>40</v>
       </c>
-      <c r="L15" s="61">
+      <c r="L15" s="60">
         <f>Notes!E33</f>
         <v>40</v>
       </c>
-      <c r="S15" s="54"/>
-      <c r="T15" s="69"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="68"/>
     </row>
     <row r="16" spans="2:20" ht="16" thickBot="1">
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="128" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="12"/>
-      <c r="H16" s="61"/>
+      <c r="H16" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3416,32 +3370,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="71" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="71" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="71" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="71" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="71" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="76" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="76" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="71" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="71"/>
+    <col min="1" max="1" width="3.5" style="70" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="70" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="70" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="70" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="70" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="75" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="75" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="70" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="73"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="74"/>
+      <c r="B3" s="73"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
@@ -3451,21 +3405,21 @@
       <c r="G3" s="13"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="70"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="74"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="70"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="79"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3492,7 +3446,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="74"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -3503,26 +3457,26 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="74"/>
-      <c r="C7" s="80" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="125" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="69">
         <v>2012</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="69">
         <v>2012</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="126">
         <v>42278</v>
       </c>
-      <c r="I7" s="122" t="s">
+      <c r="I7" s="121" t="s">
         <v>75</v>
       </c>
       <c r="J7" s="51" t="s">
@@ -3530,171 +3484,171 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="74"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="B8" s="73"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="74"/>
-      <c r="C9" s="80" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="69">
         <v>2010</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="69">
         <v>2010</v>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="126">
         <v>42278</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="70" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="74"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="121"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="120"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="74"/>
-      <c r="C11" s="123" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="135" t="s">
+      <c r="E11" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="69">
         <v>2014</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="69">
         <v>2014</v>
       </c>
-      <c r="H11" s="127">
+      <c r="H11" s="126">
         <v>42278</v>
       </c>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="69" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="74"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="74"/>
-      <c r="C13" s="149" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="135" t="s">
+      <c r="E13" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="69">
         <v>2013</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="69">
         <v>2013</v>
       </c>
-      <c r="H13" s="127">
+      <c r="H13" s="126">
         <v>42278</v>
       </c>
-      <c r="I13" s="122" t="s">
+      <c r="I13" s="121" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="120" t="s">
+      <c r="J13" s="119" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="74"/>
-      <c r="C14" s="80" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="74"/>
+      <c r="B15" s="73"/>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="74"/>
+      <c r="B16" s="73"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="74"/>
+      <c r="B17" s="73"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="74"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="74"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="70"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="74"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
+      <c r="B20" s="73"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="30" type="noConversion"/>
@@ -3715,1296 +3669,1290 @@
   </sheetPr>
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="82" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="82" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="82" customWidth="1"/>
-    <col min="4" max="4" width="4" style="82" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="82" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="82" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="82"/>
-    <col min="14" max="14" width="7.125" style="82" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="82"/>
+    <col min="1" max="1" width="3.625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="81" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="81" customWidth="1"/>
+    <col min="4" max="4" width="4" style="81" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="81" customWidth="1"/>
+    <col min="7" max="13" width="10.625" style="81"/>
+    <col min="14" max="14" width="7.125" style="81" customWidth="1"/>
+    <col min="15" max="16384" width="10.625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="86"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="92" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="119"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="118"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="87"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="87"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="89"/>
-      <c r="C6" s="90" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="G6" s="90" t="s">
+      <c r="D6" s="89"/>
+      <c r="G6" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="88"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="87"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="89"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="90"/>
-      <c r="N8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="87"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90">
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89">
         <v>66</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="88"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="87"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="90"/>
-      <c r="N10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="87"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="87"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="87"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89">
         <f>290*10^6</f>
         <v>290000000</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="87"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="87"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="89">
         <v>22</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="87"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="87"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="87"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="87"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89">
         <v>800000000</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="87"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="87"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="87"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="87"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="87"/>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="87"/>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="87"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="87"/>
     </row>
     <row r="27" spans="2:14">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="87"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="87"/>
     </row>
     <row r="29" spans="2:14">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="87"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="87"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="87"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="87"/>
     </row>
     <row r="33" spans="2:14">
-      <c r="B33" s="89"/>
-      <c r="C33" s="90" t="s">
+      <c r="B33" s="88"/>
+      <c r="C33" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="90">
+      <c r="D33" s="89">
         <v>128</v>
       </c>
-      <c r="E33" s="90">
+      <c r="E33" s="89">
         <v>40</v>
       </c>
-      <c r="F33" s="90" t="s">
+      <c r="F33" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="88"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="87"/>
     </row>
     <row r="34" spans="2:14">
-      <c r="B34" s="89"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="89"/>
+      <c r="M34" s="89"/>
+      <c r="N34" s="87"/>
     </row>
     <row r="35" spans="2:14">
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="88"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="89"/>
+      <c r="N35" s="87"/>
     </row>
     <row r="36" spans="2:14">
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="87"/>
     </row>
     <row r="37" spans="2:14">
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="88"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="87"/>
     </row>
     <row r="38" spans="2:14">
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="90"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="90"/>
-      <c r="N38" s="88"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="87"/>
     </row>
     <row r="39" spans="2:14">
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="90"/>
-      <c r="N39" s="88"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="87"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="87"/>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="87"/>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="87"/>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="89"/>
-      <c r="C43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="88"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="87"/>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="88"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="87"/>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="89"/>
-      <c r="C45" s="90" t="s">
+      <c r="B45" s="88"/>
+      <c r="C45" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="88"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="87"/>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="E46" s="125">
+      <c r="B46" s="88"/>
+      <c r="C46" s="89"/>
+      <c r="E46" s="124">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F46" s="90"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="90"/>
-      <c r="N46" s="88"/>
+      <c r="F46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="87"/>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="E47" s="90">
+      <c r="B47" s="88"/>
+      <c r="C47" s="89"/>
+      <c r="E47" s="89">
         <v>0.98499999999999999</v>
       </c>
-      <c r="F47" s="90" t="s">
+      <c r="F47" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="90"/>
-      <c r="N47" s="88"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="87"/>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="E48" s="82">
-        <v>1</v>
-      </c>
-      <c r="F48" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
-      <c r="N48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="87"/>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="90"/>
-      <c r="N49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="87"/>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="87"/>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="89"/>
-      <c r="C51" s="90" t="s">
+      <c r="B51" s="88"/>
+      <c r="C51" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="87"/>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="89"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="90"/>
-      <c r="N52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="87"/>
     </row>
     <row r="53" spans="2:14">
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90">
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89">
         <v>78</v>
       </c>
-      <c r="K53" s="90"/>
-      <c r="L53" s="90"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="88"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="89"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="K54" s="90"/>
-      <c r="L54" s="90"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="88"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="87"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="88"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="87"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="K56" s="90"/>
-      <c r="L56" s="90"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="88"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="87"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
-      <c r="K57" s="90"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="88"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="87"/>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="90"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="88"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="87"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="89"/>
-      <c r="C59" s="90"/>
-      <c r="E59" s="82">
+      <c r="B59" s="88"/>
+      <c r="C59" s="89"/>
+      <c r="E59" s="81">
         <f>34.4925*10^6</f>
         <v>34492500</v>
       </c>
-      <c r="F59" s="82" t="s">
+      <c r="F59" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="K59" s="90"/>
-      <c r="L59" s="90"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="88"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="89"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="87"/>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="F60" s="82">
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
+      <c r="F60" s="81">
         <v>1.0833999999999999</v>
       </c>
-      <c r="G60" s="82" t="s">
+      <c r="G60" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="K60" s="90"/>
-      <c r="L60" s="90"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="88"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="87"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
-      <c r="K61" s="90"/>
-      <c r="L61" s="90"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="88"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="89"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="87"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
-      <c r="F62" s="82" t="s">
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
+      <c r="F62" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="88"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="87"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="89"/>
-      <c r="C63" s="90"/>
-      <c r="F63" s="82">
+      <c r="B63" s="88"/>
+      <c r="C63" s="89"/>
+      <c r="F63" s="81">
         <v>16</v>
       </c>
-      <c r="G63" s="82" t="s">
+      <c r="G63" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="K63" s="90"/>
-      <c r="L63" s="90"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="88"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="87"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
-      <c r="F64" s="82">
+      <c r="B64" s="88"/>
+      <c r="C64" s="89"/>
+      <c r="F64" s="81">
         <f>16000000000*0.833</f>
         <v>13328000000</v>
       </c>
-      <c r="G64" s="82" t="s">
+      <c r="G64" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="H64" s="82" t="s">
+      <c r="H64" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="88"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="87"/>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
-      <c r="F65" s="82">
+      <c r="B65" s="88"/>
+      <c r="C65" s="89"/>
+      <c r="F65" s="81">
         <f>F64*38.018--7203</f>
         <v>506703911203</v>
       </c>
-      <c r="G65" s="82" t="s">
+      <c r="G65" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="K65" s="90"/>
-      <c r="L65" s="90"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="88"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="87"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="89"/>
-      <c r="C66" s="90"/>
-      <c r="F66" s="82">
+      <c r="B66" s="88"/>
+      <c r="C66" s="89"/>
+      <c r="F66" s="81">
         <f>F65/(10^9)</f>
         <v>506.70391120300002</v>
       </c>
-      <c r="G66" s="82" t="s">
+      <c r="G66" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="K66" s="90"/>
-      <c r="L66" s="90"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="88"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="87"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="F67" s="82">
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="F67" s="81">
         <f>F66/365</f>
         <v>1.3882298937068493</v>
       </c>
-      <c r="G67" s="82" t="s">
+      <c r="G67" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="K67" s="90"/>
-      <c r="L67" s="90"/>
-      <c r="M67" s="90"/>
-      <c r="N67" s="88"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="87"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
-      <c r="K68" s="90"/>
-      <c r="L68" s="90"/>
-      <c r="M68" s="90"/>
-      <c r="N68" s="88"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="87"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="89"/>
-      <c r="C69" s="90"/>
-      <c r="F69" s="82" t="s">
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
+      <c r="F69" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
-      <c r="M69" s="90"/>
-      <c r="N69" s="88"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="87"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="89"/>
-      <c r="C70" s="90" t="s">
+      <c r="B70" s="88"/>
+      <c r="C70" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="K70" s="90"/>
-      <c r="L70" s="90"/>
-      <c r="M70" s="90"/>
-      <c r="N70" s="88"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="87"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="89"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="82">
+      <c r="B71" s="88"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="81">
         <v>70</v>
       </c>
-      <c r="E71" s="82">
+      <c r="E71" s="81">
         <f>E59*F67/F60</f>
         <v>44197452.103270732</v>
       </c>
-      <c r="F71" s="82" t="s">
+      <c r="F71" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="K71" s="90"/>
-      <c r="L71" s="90"/>
-      <c r="M71" s="90"/>
-      <c r="N71" s="88"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="89"/>
+      <c r="N71" s="87"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="89"/>
-      <c r="C72" s="90"/>
-      <c r="E72" s="82">
+      <c r="B72" s="88"/>
+      <c r="C72" s="89"/>
+      <c r="E72" s="81">
         <f>Exchange_rates!E9</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="F72" s="82" t="s">
+      <c r="F72" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="K72" s="90"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="90"/>
-      <c r="N72" s="88"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="89"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="87"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="89"/>
-      <c r="C73" s="90"/>
-      <c r="E73" s="82">
+      <c r="B73" s="88"/>
+      <c r="C73" s="89"/>
+      <c r="E73" s="81">
         <f>E71/E72</f>
         <v>40252688.618643649</v>
       </c>
-      <c r="F73" s="82" t="s">
+      <c r="F73" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="K73" s="90"/>
-      <c r="L73" s="90"/>
-      <c r="M73" s="90"/>
-      <c r="N73" s="88"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="89"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="87"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="89"/>
-      <c r="K74" s="90"/>
-      <c r="L74" s="90"/>
-      <c r="M74" s="90"/>
-      <c r="N74" s="88"/>
+      <c r="B74" s="88"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="89"/>
+      <c r="M74" s="89"/>
+      <c r="N74" s="87"/>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="89"/>
-      <c r="K75" s="90"/>
-      <c r="L75" s="90"/>
-      <c r="M75" s="90"/>
-      <c r="N75" s="88"/>
+      <c r="B75" s="88"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="87"/>
     </row>
     <row r="76" spans="2:14">
-      <c r="B76" s="89"/>
+      <c r="B76" s="88"/>
     </row>
     <row r="77" spans="2:14">
-      <c r="B77" s="89"/>
-      <c r="E77" s="82">
+      <c r="B77" s="88"/>
+      <c r="E77" s="81">
         <v>0.12364799999999999</v>
       </c>
-      <c r="F77" s="82" t="s">
+      <c r="F77" s="81" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="78" spans="2:14">
-      <c r="B78" s="89"/>
-      <c r="E78" s="82">
+      <c r="B78" s="88"/>
+      <c r="E78" s="81">
         <f>E77/1000</f>
         <v>1.2364799999999999E-4</v>
       </c>
-      <c r="F78" s="82" t="s">
+      <c r="F78" s="81" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79" s="89"/>
-      <c r="C79" s="90"/>
-      <c r="E79" s="82">
+      <c r="B79" s="88"/>
+      <c r="C79" s="89"/>
+      <c r="E79" s="81">
         <f>Exchange_rates!E9</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="F79" s="82" t="s">
+      <c r="F79" s="81" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="80" spans="2:14">
-      <c r="B80" s="89"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="82">
+      <c r="B80" s="88"/>
+      <c r="C80" s="89"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="81">
         <f>E78/E79</f>
         <v>1.1261202185792348E-4</v>
       </c>
-      <c r="F80" s="82" t="s">
+      <c r="F80" s="81" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="89"/>
-      <c r="C81" s="90"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="89"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="B82" s="89"/>
+      <c r="B82" s="88"/>
     </row>
     <row r="83" spans="2:3">
-      <c r="B83" s="89"/>
+      <c r="B83" s="88"/>
     </row>
     <row r="84" spans="2:3">
-      <c r="B84" s="89"/>
+      <c r="B84" s="88"/>
     </row>
     <row r="85" spans="2:3">
-      <c r="B85" s="89"/>
+      <c r="B85" s="88"/>
     </row>
     <row r="86" spans="2:3">
-      <c r="B86" s="89"/>
+      <c r="B86" s="88"/>
     </row>
     <row r="87" spans="2:3">
-      <c r="B87" s="89"/>
+      <c r="B87" s="88"/>
     </row>
     <row r="88" spans="2:3">
-      <c r="B88" s="89"/>
+      <c r="B88" s="88"/>
     </row>
     <row r="89" spans="2:3">
-      <c r="B89" s="89"/>
+      <c r="B89" s="88"/>
     </row>
     <row r="90" spans="2:3">
-      <c r="B90" s="89"/>
+      <c r="B90" s="88"/>
     </row>
     <row r="91" spans="2:3">
-      <c r="B91" s="89"/>
+      <c r="B91" s="88"/>
     </row>
     <row r="92" spans="2:3">
-      <c r="B92" s="89"/>
-      <c r="C92" s="90"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="89"/>
     </row>
     <row r="93" spans="2:3">
-      <c r="B93" s="89"/>
-      <c r="C93" s="90"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="89"/>
     </row>
     <row r="94" spans="2:3">
-      <c r="B94" s="89"/>
-      <c r="C94" s="90"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="89"/>
     </row>
     <row r="95" spans="2:3">
-      <c r="B95" s="89"/>
-      <c r="C95" s="90"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="89"/>
     </row>
     <row r="96" spans="2:3">
-      <c r="B96" s="89"/>
-      <c r="C96" s="90"/>
+      <c r="B96" s="88"/>
+      <c r="C96" s="89"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="89"/>
-      <c r="C97" s="90"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="89"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="89"/>
+      <c r="B98" s="88"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="89"/>
+      <c r="B99" s="88"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="89"/>
+      <c r="B100" s="88"/>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="89"/>
+      <c r="B101" s="88"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="89"/>
+      <c r="B102" s="88"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="89"/>
+      <c r="B103" s="88"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="89"/>
+      <c r="B104" s="88"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="89"/>
+      <c r="B105" s="88"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="89"/>
+      <c r="B106" s="88"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="89"/>
+      <c r="B107" s="88"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="89"/>
+      <c r="B108" s="88"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="89"/>
+      <c r="B109" s="88"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="89"/>
+      <c r="B110" s="88"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="89"/>
+      <c r="B111" s="88"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="89"/>
+      <c r="B112" s="88"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="89"/>
+      <c r="B113" s="88"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="89"/>
+      <c r="B114" s="88"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="89"/>
+      <c r="B115" s="88"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="89"/>
+      <c r="B116" s="88"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="89"/>
+      <c r="B117" s="88"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="89"/>
+      <c r="B118" s="88"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="89"/>
+      <c r="B119" s="88"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="89"/>
+      <c r="B120" s="88"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="89"/>
+      <c r="B121" s="88"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="89"/>
+      <c r="B122" s="88"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="89"/>
+      <c r="B123" s="88"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="89"/>
+      <c r="B124" s="88"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="89"/>
+      <c r="B125" s="88"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="89"/>
+      <c r="B126" s="88"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="89"/>
+      <c r="B127" s="88"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="89"/>
+      <c r="B128" s="88"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="89"/>
+      <c r="B129" s="88"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="89"/>
+      <c r="B130" s="88"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="89"/>
+      <c r="B131" s="88"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="89"/>
+      <c r="B132" s="88"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="89"/>
+      <c r="B133" s="88"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="89"/>
+      <c r="B134" s="88"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="89"/>
+      <c r="B135" s="88"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="89"/>
+      <c r="B136" s="88"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="89"/>
+      <c r="B137" s="88"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="89"/>
+      <c r="B138" s="88"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="89"/>
+      <c r="B139" s="88"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="89"/>
+      <c r="B140" s="88"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="89"/>
+      <c r="B141" s="88"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="89"/>
+      <c r="B142" s="88"/>
     </row>
     <row r="143" spans="2:2">
-      <c r="B143" s="89"/>
+      <c r="B143" s="88"/>
     </row>
     <row r="144" spans="2:2">
-      <c r="B144" s="89"/>
+      <c r="B144" s="88"/>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="89"/>
+      <c r="B145" s="88"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="89"/>
+      <c r="B146" s="88"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="89"/>
+      <c r="B147" s="88"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="89"/>
+      <c r="B148" s="88"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="89"/>
+      <c r="B149" s="88"/>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="89"/>
+      <c r="B150" s="88"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="89"/>
+      <c r="B151" s="88"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="89"/>
+      <c r="B152" s="88"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="89"/>
+      <c r="B153" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5036,80 +4984,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="136"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="A1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="136"/>
+      <c r="A2" s="135"/>
       <c r="B2" s="154" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="155"/>
       <c r="D2" s="155"/>
       <c r="E2" s="163"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="136"/>
+      <c r="A3" s="135"/>
       <c r="B3" s="157"/>
       <c r="C3" s="158"/>
       <c r="D3" s="158"/>
       <c r="E3" s="164"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="136"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="160"/>
       <c r="C4" s="161"/>
       <c r="D4" s="161"/>
       <c r="E4" s="165"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:9" ht="17" thickBot="1">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="136"/>
-      <c r="B6" s="138"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="139"/>
+      <c r="I6" s="138"/>
     </row>
     <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="140"/>
-      <c r="B7" s="141"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="140"/>
       <c r="C7" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="141" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -5124,34 +5072,34 @@
       <c r="H7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="143"/>
+      <c r="I7" s="142"/>
     </row>
     <row r="8" spans="1:9" ht="19" thickBot="1">
       <c r="B8" s="25"/>
-      <c r="I8" s="144"/>
+      <c r="I8" s="143"/>
     </row>
     <row r="9" spans="1:9" ht="19" thickBot="1">
-      <c r="A9" s="140"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="145" t="s">
+      <c r="C9" s="144" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="146">
+      <c r="E9" s="145">
         <v>1.0980000000000001</v>
       </c>
-      <c r="F9" s="145" t="s">
+      <c r="F9" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="147">
+      <c r="G9" s="146">
         <v>42221</v>
       </c>
-      <c r="H9" s="148" t="s">
+      <c r="H9" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="I9" s="144"/>
+      <c r="I9" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -12,10 +12,9 @@
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
     <sheet name="Notes" sheetId="20" r:id="rId5"/>
-    <sheet name="Exchange_rates" sheetId="21" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
   <si>
     <t>Source</t>
   </si>
@@ -284,9 +283,6 @@
     <t>EIA</t>
   </si>
   <si>
-    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
-  </si>
-  <si>
     <t>Exchange rate</t>
   </si>
   <si>
@@ -329,9 +325,6 @@
     <t>values from natural_gas.carrier</t>
   </si>
   <si>
-    <t>Since they are close in capacity, it is relatively safe to scale the fixed operational costs</t>
-  </si>
-  <si>
     <t>PJ/day  capacity</t>
   </si>
   <si>
@@ -405,6 +398,24 @@
   </si>
   <si>
     <t>Page</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>Since close in capacity, we scale the fixed operational costs</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M, scaled</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M</t>
+  </si>
+  <si>
+    <t>ECB</t>
   </si>
 </sst>
 </file>
@@ -417,7 +428,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,10 +638,26 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="13">
@@ -707,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -925,39 +952,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="273">
+  <cellStyleXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1234,8 +1230,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1435,16 +1438,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1487,17 +1481,25 @@
     <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="273">
+  <cellStyles count="280">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1681,6 +1683,13 @@
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1856,16 +1865,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1882,7 +1891,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3898900" y="1358900"/>
+          <a:off x="5359400" y="1422400"/>
           <a:ext cx="8763000" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1894,16 +1903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:colOff>901700</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1920,7 +1929,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3860800" y="2616200"/>
+          <a:off x="5372100" y="2717800"/>
           <a:ext cx="8915400" cy="1473200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1932,14 +1941,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -1958,8 +1967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="4533900"/>
-          <a:ext cx="9664700" cy="2933700"/>
+          <a:off x="5384800" y="4533900"/>
+          <a:ext cx="9296400" cy="2933700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1970,16 +1979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1996,8 +2005,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4826000" y="8166100"/>
-          <a:ext cx="10350500" cy="1003300"/>
+          <a:off x="5410200" y="8153400"/>
+          <a:ext cx="9385300" cy="1003300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,16 +2017,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>4762500</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,7 +2043,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7226300" y="9448800"/>
+          <a:off x="7213600" y="11036300"/>
           <a:ext cx="12014200" cy="4711700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2675,7 +2684,7 @@
   </sheetPr>
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2698,36 +2707,36 @@
       <c r="D1" s="37"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="159"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="150"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="162"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="153"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
@@ -2814,8 +2823,8 @@
         <v>58</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="147" t="s">
-        <v>117</v>
+      <c r="I12" s="138" t="s">
+        <v>115</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -2862,8 +2871,8 @@
         <v>6</v>
       </c>
       <c r="H15" s="40"/>
-      <c r="I15" s="147" t="s">
-        <v>116</v>
+      <c r="I15" s="138" t="s">
+        <v>114</v>
       </c>
       <c r="J15" s="114"/>
     </row>
@@ -2884,30 +2893,30 @@
         <v>26</v>
       </c>
       <c r="H16" s="40"/>
-      <c r="I16" s="147" t="s">
-        <v>112</v>
+      <c r="I16" s="138" t="s">
+        <v>110</v>
       </c>
       <c r="J16" s="114"/>
     </row>
     <row r="17" spans="2:10" ht="16" thickBot="1">
       <c r="B17" s="41"/>
-      <c r="C17" s="144" t="s">
-        <v>113</v>
+      <c r="C17" s="137" t="s">
+        <v>111</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="152">
+        <v>112</v>
+      </c>
+      <c r="E17" s="143">
         <f>'Research data'!H12</f>
         <v>1.1261202185792348E-4</v>
       </c>
       <c r="F17" s="40"/>
-      <c r="G17" s="144" t="s">
-        <v>111</v>
+      <c r="G17" s="137" t="s">
+        <v>109</v>
       </c>
       <c r="H17" s="40"/>
-      <c r="I17" s="147" t="s">
-        <v>112</v>
+      <c r="I17" s="138" t="s">
+        <v>110</v>
       </c>
       <c r="J17" s="114"/>
     </row>
@@ -3038,8 +3047,8 @@
   </sheetPr>
   <dimension ref="B2:T16"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3183,7 +3192,7 @@
       <c r="N7" s="63"/>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
-      <c r="Q7" s="153"/>
+      <c r="Q7" s="144"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="49"/>
@@ -3225,7 +3234,7 @@
     </row>
     <row r="10" spans="2:20" ht="16" thickBot="1">
       <c r="B10" s="49"/>
-      <c r="C10" s="149" t="s">
+      <c r="C10" s="140" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="12"/>
@@ -3253,8 +3262,8 @@
     </row>
     <row r="11" spans="2:20" ht="16" thickBot="1">
       <c r="B11" s="49"/>
-      <c r="C11" s="149" t="s">
-        <v>107</v>
+      <c r="C11" s="140" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="59"/>
@@ -3269,7 +3278,7 @@
       <c r="I11" s="61"/>
       <c r="K11" s="61"/>
       <c r="L11" s="55">
-        <f>Notes!E73</f>
+        <f>Notes!E85</f>
         <v>40252688.618643649</v>
       </c>
       <c r="M11" s="61"/>
@@ -3280,23 +3289,23 @@
     </row>
     <row r="12" spans="2:20" ht="16" thickBot="1">
       <c r="B12" s="49"/>
-      <c r="C12" s="149" t="s">
-        <v>109</v>
+      <c r="C12" s="140" t="s">
+        <v>107</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="59"/>
-      <c r="F12" s="150" t="s">
-        <v>110</v>
+      <c r="F12" s="141" t="s">
+        <v>108</v>
       </c>
       <c r="G12" s="111"/>
-      <c r="H12" s="151">
+      <c r="H12" s="142">
         <f>L12</f>
         <v>1.1261202185792348E-4</v>
       </c>
       <c r="I12" s="61"/>
       <c r="K12" s="61"/>
-      <c r="L12" s="151">
-        <f>Notes!E80</f>
+      <c r="L12" s="142">
+        <f>Notes!E92</f>
         <v>1.1261202185792348E-4</v>
       </c>
       <c r="M12" s="61"/>
@@ -3304,7 +3313,7 @@
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="136" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:20">
@@ -3571,14 +3580,14 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="73"/>
-      <c r="C13" s="148" t="s">
-        <v>119</v>
+      <c r="C13" s="139" t="s">
+        <v>117</v>
       </c>
       <c r="D13" s="134" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F13" s="69">
         <v>2013</v>
@@ -3590,10 +3599,10 @@
         <v>42278</v>
       </c>
       <c r="I13" s="121" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="119" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -3667,10 +3676,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3681,9 +3690,13 @@
     <col min="4" max="4" width="4" style="81" customWidth="1"/>
     <col min="5" max="5" width="13.125" style="81" customWidth="1"/>
     <col min="6" max="6" width="5.25" style="81" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="81"/>
-    <col min="14" max="14" width="7.125" style="81" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="81"/>
+    <col min="7" max="8" width="10.625" style="81"/>
+    <col min="9" max="9" width="13" style="81" customWidth="1"/>
+    <col min="10" max="13" width="10.625" style="81"/>
+    <col min="14" max="14" width="16.125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="81"/>
+    <col min="16" max="16" width="55.75" style="81" customWidth="1"/>
+    <col min="17" max="16384" width="10.625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1"/>
@@ -3709,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" s="91" t="s">
         <v>28</v>
@@ -3756,7 +3769,7 @@
     <row r="6" spans="1:14">
       <c r="B6" s="88"/>
       <c r="C6" s="89" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="89"/>
       <c r="G6" s="89" t="s">
@@ -3768,7 +3781,6 @@
       <c r="K6" s="89"/>
       <c r="L6" s="89"/>
       <c r="M6" s="89"/>
-      <c r="N6" s="87"/>
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="88"/>
@@ -3783,7 +3795,6 @@
       <c r="K7" s="89"/>
       <c r="L7" s="89"/>
       <c r="M7" s="89"/>
-      <c r="N7" s="87"/>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" s="88"/>
@@ -3798,7 +3809,6 @@
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
       <c r="M8" s="89"/>
-      <c r="N8" s="87"/>
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="88"/>
@@ -3815,7 +3825,6 @@
       <c r="K9" s="89"/>
       <c r="L9" s="89"/>
       <c r="M9" s="89"/>
-      <c r="N9" s="87"/>
     </row>
     <row r="10" spans="1:14">
       <c r="B10" s="88"/>
@@ -3830,7 +3839,6 @@
       <c r="K10" s="89"/>
       <c r="L10" s="89"/>
       <c r="M10" s="89"/>
-      <c r="N10" s="87"/>
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="88"/>
@@ -3845,7 +3853,6 @@
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
       <c r="M11" s="89"/>
-      <c r="N11" s="87"/>
     </row>
     <row r="12" spans="1:14">
       <c r="B12" s="88"/>
@@ -3860,7 +3867,6 @@
       <c r="K12" s="89"/>
       <c r="L12" s="89"/>
       <c r="M12" s="89"/>
-      <c r="N12" s="87"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="88"/>
@@ -3880,7 +3886,6 @@
       <c r="K13" s="89"/>
       <c r="L13" s="89"/>
       <c r="M13" s="89"/>
-      <c r="N13" s="87"/>
     </row>
     <row r="14" spans="1:14">
       <c r="B14" s="88"/>
@@ -3895,7 +3900,6 @@
       <c r="K14" s="89"/>
       <c r="L14" s="89"/>
       <c r="M14" s="89"/>
-      <c r="N14" s="87"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="88"/>
@@ -3912,7 +3916,6 @@
       <c r="K15" s="89"/>
       <c r="L15" s="89"/>
       <c r="M15" s="89"/>
-      <c r="N15" s="87"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="88"/>
@@ -3927,9 +3930,8 @@
       <c r="K16" s="89"/>
       <c r="L16" s="89"/>
       <c r="M16" s="89"/>
-      <c r="N16" s="87"/>
-    </row>
-    <row r="17" spans="2:14">
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" s="88"/>
       <c r="C17" s="89"/>
       <c r="D17" s="89"/>
@@ -3942,9 +3944,8 @@
       <c r="K17" s="89"/>
       <c r="L17" s="89"/>
       <c r="M17" s="89"/>
-      <c r="N17" s="87"/>
-    </row>
-    <row r="18" spans="2:14">
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" s="88"/>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
@@ -3957,9 +3958,8 @@
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
       <c r="M18" s="89"/>
-      <c r="N18" s="87"/>
-    </row>
-    <row r="19" spans="2:14">
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" s="88"/>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
@@ -3976,9 +3976,8 @@
       <c r="K19" s="89"/>
       <c r="L19" s="89"/>
       <c r="M19" s="89"/>
-      <c r="N19" s="87"/>
-    </row>
-    <row r="20" spans="2:14">
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" s="88"/>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
@@ -3991,9 +3990,8 @@
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
       <c r="M20" s="89"/>
-      <c r="N20" s="87"/>
-    </row>
-    <row r="21" spans="2:14">
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="88"/>
       <c r="C21" s="89"/>
       <c r="D21" s="89"/>
@@ -4006,9 +4004,8 @@
       <c r="K21" s="89"/>
       <c r="L21" s="89"/>
       <c r="M21" s="89"/>
-      <c r="N21" s="87"/>
-    </row>
-    <row r="22" spans="2:14">
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" s="88"/>
       <c r="C22" s="89"/>
       <c r="D22" s="89"/>
@@ -4021,9 +4018,8 @@
       <c r="K22" s="89"/>
       <c r="L22" s="89"/>
       <c r="M22" s="89"/>
-      <c r="N22" s="87"/>
-    </row>
-    <row r="23" spans="2:14">
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" s="88"/>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
@@ -4036,9 +4032,8 @@
       <c r="K23" s="89"/>
       <c r="L23" s="89"/>
       <c r="M23" s="89"/>
-      <c r="N23" s="87"/>
-    </row>
-    <row r="24" spans="2:14">
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" s="88"/>
       <c r="C24" s="89"/>
       <c r="D24" s="89"/>
@@ -4051,9 +4046,8 @@
       <c r="K24" s="89"/>
       <c r="L24" s="89"/>
       <c r="M24" s="89"/>
-      <c r="N24" s="87"/>
-    </row>
-    <row r="25" spans="2:14">
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" s="88"/>
       <c r="C25" s="89"/>
       <c r="D25" s="89"/>
@@ -4066,9 +4060,8 @@
       <c r="K25" s="89"/>
       <c r="L25" s="89"/>
       <c r="M25" s="89"/>
-      <c r="N25" s="87"/>
-    </row>
-    <row r="26" spans="2:14">
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="88"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -4081,9 +4074,8 @@
       <c r="K26" s="89"/>
       <c r="L26" s="89"/>
       <c r="M26" s="89"/>
-      <c r="N26" s="87"/>
-    </row>
-    <row r="27" spans="2:14">
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" s="88"/>
       <c r="C27" s="89"/>
       <c r="D27" s="89"/>
@@ -4096,9 +4088,8 @@
       <c r="K27" s="89"/>
       <c r="L27" s="89"/>
       <c r="M27" s="89"/>
-      <c r="N27" s="87"/>
-    </row>
-    <row r="28" spans="2:14">
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" s="88"/>
       <c r="C28" s="89"/>
       <c r="D28" s="89"/>
@@ -4111,9 +4102,8 @@
       <c r="K28" s="89"/>
       <c r="L28" s="89"/>
       <c r="M28" s="89"/>
-      <c r="N28" s="87"/>
-    </row>
-    <row r="29" spans="2:14">
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" s="88"/>
       <c r="C29" s="89"/>
       <c r="D29" s="89"/>
@@ -4126,9 +4116,8 @@
       <c r="K29" s="89"/>
       <c r="L29" s="89"/>
       <c r="M29" s="89"/>
-      <c r="N29" s="87"/>
-    </row>
-    <row r="30" spans="2:14">
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" s="88"/>
       <c r="C30" s="89"/>
       <c r="D30" s="89"/>
@@ -4141,9 +4130,8 @@
       <c r="K30" s="89"/>
       <c r="L30" s="89"/>
       <c r="M30" s="89"/>
-      <c r="N30" s="87"/>
-    </row>
-    <row r="31" spans="2:14">
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" s="88"/>
       <c r="C31" s="89"/>
       <c r="D31" s="89"/>
@@ -4156,9 +4144,8 @@
       <c r="K31" s="89"/>
       <c r="L31" s="89"/>
       <c r="M31" s="89"/>
-      <c r="N31" s="87"/>
-    </row>
-    <row r="32" spans="2:14">
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" s="88"/>
       <c r="C32" s="89"/>
       <c r="D32" s="89"/>
@@ -4171,9 +4158,8 @@
       <c r="K32" s="89"/>
       <c r="L32" s="89"/>
       <c r="M32" s="89"/>
-      <c r="N32" s="87"/>
-    </row>
-    <row r="33" spans="2:14">
+    </row>
+    <row r="33" spans="2:13">
       <c r="B33" s="88"/>
       <c r="C33" s="89" t="s">
         <v>56</v>
@@ -4194,9 +4180,8 @@
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
       <c r="M33" s="89"/>
-      <c r="N33" s="87"/>
-    </row>
-    <row r="34" spans="2:14">
+    </row>
+    <row r="34" spans="2:13">
       <c r="B34" s="88"/>
       <c r="G34" s="89"/>
       <c r="H34" s="89"/>
@@ -4205,9 +4190,8 @@
       <c r="K34" s="89"/>
       <c r="L34" s="89"/>
       <c r="M34" s="89"/>
-      <c r="N34" s="87"/>
-    </row>
-    <row r="35" spans="2:14">
+    </row>
+    <row r="35" spans="2:13">
       <c r="B35" s="88"/>
       <c r="C35" s="89"/>
       <c r="D35" s="89"/>
@@ -4220,9 +4204,8 @@
       <c r="K35" s="89"/>
       <c r="L35" s="89"/>
       <c r="M35" s="89"/>
-      <c r="N35" s="87"/>
-    </row>
-    <row r="36" spans="2:14">
+    </row>
+    <row r="36" spans="2:13">
       <c r="B36" s="88"/>
       <c r="C36" s="89"/>
       <c r="D36" s="89"/>
@@ -4235,9 +4218,8 @@
       <c r="K36" s="89"/>
       <c r="L36" s="89"/>
       <c r="M36" s="89"/>
-      <c r="N36" s="87"/>
-    </row>
-    <row r="37" spans="2:14">
+    </row>
+    <row r="37" spans="2:13">
       <c r="B37" s="88"/>
       <c r="C37" s="89"/>
       <c r="D37" s="89"/>
@@ -4250,9 +4232,8 @@
       <c r="K37" s="89"/>
       <c r="L37" s="89"/>
       <c r="M37" s="89"/>
-      <c r="N37" s="87"/>
-    </row>
-    <row r="38" spans="2:14">
+    </row>
+    <row r="38" spans="2:13">
       <c r="B38" s="88"/>
       <c r="C38" s="89"/>
       <c r="D38" s="89"/>
@@ -4263,9 +4244,8 @@
       <c r="K38" s="89"/>
       <c r="L38" s="89"/>
       <c r="M38" s="89"/>
-      <c r="N38" s="87"/>
-    </row>
-    <row r="39" spans="2:14">
+    </row>
+    <row r="39" spans="2:13">
       <c r="B39" s="88"/>
       <c r="C39" s="89"/>
       <c r="D39" s="89"/>
@@ -4278,9 +4258,8 @@
       <c r="K39" s="89"/>
       <c r="L39" s="89"/>
       <c r="M39" s="89"/>
-      <c r="N39" s="87"/>
-    </row>
-    <row r="40" spans="2:14">
+    </row>
+    <row r="40" spans="2:13">
       <c r="B40" s="88"/>
       <c r="C40" s="89"/>
       <c r="D40" s="89"/>
@@ -4293,9 +4272,8 @@
       <c r="K40" s="89"/>
       <c r="L40" s="89"/>
       <c r="M40" s="89"/>
-      <c r="N40" s="87"/>
-    </row>
-    <row r="41" spans="2:14">
+    </row>
+    <row r="41" spans="2:13">
       <c r="B41" s="88"/>
       <c r="C41" s="89"/>
       <c r="D41" s="89"/>
@@ -4308,43 +4286,38 @@
       <c r="K41" s="89"/>
       <c r="L41" s="89"/>
       <c r="M41" s="89"/>
-      <c r="N41" s="87"/>
-    </row>
-    <row r="42" spans="2:14">
+    </row>
+    <row r="42" spans="2:13">
       <c r="B42" s="88"/>
       <c r="C42" s="89"/>
       <c r="K42" s="89"/>
       <c r="L42" s="89"/>
       <c r="M42" s="89"/>
-      <c r="N42" s="87"/>
-    </row>
-    <row r="43" spans="2:14">
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="88"/>
       <c r="C43" s="89"/>
       <c r="K43" s="89"/>
       <c r="L43" s="89"/>
       <c r="M43" s="89"/>
-      <c r="N43" s="87"/>
-    </row>
-    <row r="44" spans="2:14">
+    </row>
+    <row r="44" spans="2:13">
       <c r="B44" s="88"/>
       <c r="C44" s="89"/>
       <c r="K44" s="89"/>
       <c r="L44" s="89"/>
       <c r="M44" s="89"/>
-      <c r="N44" s="87"/>
-    </row>
-    <row r="45" spans="2:14">
+    </row>
+    <row r="45" spans="2:13">
       <c r="B45" s="88"/>
       <c r="C45" s="89" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K45" s="89"/>
       <c r="L45" s="89"/>
       <c r="M45" s="89"/>
-      <c r="N45" s="87"/>
-    </row>
-    <row r="46" spans="2:14">
+    </row>
+    <row r="46" spans="2:13">
       <c r="B46" s="88"/>
       <c r="C46" s="89"/>
       <c r="E46" s="124">
@@ -4354,9 +4327,8 @@
       <c r="K46" s="89"/>
       <c r="L46" s="89"/>
       <c r="M46" s="89"/>
-      <c r="N46" s="87"/>
-    </row>
-    <row r="47" spans="2:14">
+    </row>
+    <row r="47" spans="2:13">
       <c r="B47" s="88"/>
       <c r="C47" s="89"/>
       <c r="E47" s="89">
@@ -4368,417 +4340,450 @@
       <c r="K47" s="89"/>
       <c r="L47" s="89"/>
       <c r="M47" s="89"/>
-      <c r="N47" s="87"/>
-    </row>
-    <row r="48" spans="2:14">
+    </row>
+    <row r="48" spans="2:13">
       <c r="B48" s="88"/>
       <c r="C48" s="89"/>
       <c r="K48" s="89"/>
       <c r="L48" s="89"/>
       <c r="M48" s="89"/>
-      <c r="N48" s="87"/>
-    </row>
-    <row r="49" spans="2:14">
+    </row>
+    <row r="49" spans="2:17">
       <c r="B49" s="88"/>
       <c r="C49" s="89"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
-      <c r="N49" s="87"/>
-    </row>
-    <row r="50" spans="2:14">
+    </row>
+    <row r="50" spans="2:17">
       <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="87"/>
-    </row>
-    <row r="51" spans="2:14">
+    </row>
+    <row r="51" spans="2:17">
       <c r="B51" s="88"/>
-      <c r="C51" s="89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="87"/>
-    </row>
-    <row r="52" spans="2:14">
+    </row>
+    <row r="52" spans="2:17">
       <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="2:14">
+    </row>
+    <row r="53" spans="2:17">
       <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89">
-        <v>78</v>
-      </c>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="87"/>
-    </row>
-    <row r="54" spans="2:14">
+    </row>
+    <row r="54" spans="2:17">
       <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="89"/>
-      <c r="M54" s="89"/>
-      <c r="N54" s="87"/>
-    </row>
-    <row r="55" spans="2:14">
+    </row>
+    <row r="55" spans="2:17">
       <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="89"/>
-      <c r="M55" s="89"/>
-      <c r="N55" s="87"/>
-    </row>
-    <row r="56" spans="2:14">
+    </row>
+    <row r="56" spans="2:17">
       <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="87"/>
-    </row>
-    <row r="57" spans="2:14">
+    </row>
+    <row r="57" spans="2:17">
       <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="89"/>
-      <c r="M57" s="89"/>
-      <c r="N57" s="87"/>
-    </row>
-    <row r="58" spans="2:14">
+    </row>
+    <row r="58" spans="2:17">
       <c r="B58" s="88"/>
-      <c r="C58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="87"/>
-    </row>
-    <row r="59" spans="2:14">
+    </row>
+    <row r="59" spans="2:17">
       <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
-      <c r="E59" s="81">
-        <f>34.4925*10^6</f>
-        <v>34492500</v>
-      </c>
-      <c r="F59" s="81" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="89"/>
-      <c r="N59" s="87"/>
-    </row>
-    <row r="60" spans="2:14">
+    </row>
+    <row r="60" spans="2:17">
       <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="F60" s="81">
-        <v>1.0833999999999999</v>
-      </c>
-      <c r="G60" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="87"/>
-    </row>
-    <row r="61" spans="2:14">
+    </row>
+    <row r="61" spans="2:17">
       <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="87"/>
-    </row>
-    <row r="62" spans="2:14">
+    </row>
+    <row r="62" spans="2:17" ht="16" thickBot="1">
       <c r="B62" s="88"/>
       <c r="C62" s="89"/>
-      <c r="F62" s="81" t="s">
-        <v>88</v>
-      </c>
       <c r="K62" s="89"/>
       <c r="L62" s="89"/>
       <c r="M62" s="89"/>
-      <c r="N62" s="87"/>
-    </row>
-    <row r="63" spans="2:14">
+    </row>
+    <row r="63" spans="2:17">
       <c r="B63" s="88"/>
-      <c r="C63" s="89"/>
-      <c r="F63" s="81">
-        <v>16</v>
-      </c>
-      <c r="G63" s="81" t="s">
-        <v>89</v>
-      </c>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
-      <c r="M63" s="89"/>
-      <c r="N63" s="87"/>
-    </row>
-    <row r="64" spans="2:14">
+      <c r="C63" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="89"/>
+      <c r="J63" s="155"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
+      <c r="P63" s="156"/>
+      <c r="Q63" s="157"/>
+    </row>
+    <row r="64" spans="2:17" ht="18">
       <c r="B64" s="88"/>
       <c r="C64" s="89"/>
-      <c r="F64" s="81">
-        <f>16000000000*0.833</f>
-        <v>13328000000</v>
-      </c>
-      <c r="G64" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="H64" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="87"/>
-    </row>
-    <row r="65" spans="2:14">
+      <c r="D64" s="89"/>
+      <c r="J64" s="158"/>
+      <c r="K64" s="159" t="s">
+        <v>80</v>
+      </c>
+      <c r="L64" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="M64" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="N64" s="159" t="s">
+        <v>7</v>
+      </c>
+      <c r="O64" s="159" t="s">
+        <v>81</v>
+      </c>
+      <c r="P64" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="160"/>
+    </row>
+    <row r="65" spans="2:17" ht="19" thickBot="1">
       <c r="B65" s="88"/>
       <c r="C65" s="89"/>
-      <c r="F65" s="81">
-        <f>F64*38.018--7203</f>
-        <v>506703911203</v>
-      </c>
-      <c r="G65" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="K65" s="89"/>
-      <c r="L65" s="89"/>
-      <c r="M65" s="89"/>
-      <c r="N65" s="87"/>
-    </row>
-    <row r="66" spans="2:14">
+      <c r="D65" s="89"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="162"/>
+      <c r="L65" s="162"/>
+      <c r="M65" s="162"/>
+      <c r="N65" s="162"/>
+      <c r="O65" s="162"/>
+      <c r="P65" s="162"/>
+      <c r="Q65" s="163"/>
+    </row>
+    <row r="66" spans="2:17" ht="19" thickBot="1">
       <c r="B66" s="88"/>
       <c r="C66" s="89"/>
-      <c r="F66" s="81">
-        <f>F65/(10^9)</f>
-        <v>506.70391120300002</v>
-      </c>
-      <c r="G66" s="81" t="s">
-        <v>92</v>
-      </c>
-      <c r="K66" s="89"/>
-      <c r="L66" s="89"/>
-      <c r="M66" s="89"/>
-      <c r="N66" s="87"/>
-    </row>
-    <row r="67" spans="2:14">
+      <c r="D66" s="89"/>
+      <c r="E66" s="170">
+        <f>M66</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F66" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="J66" s="161"/>
+      <c r="K66" s="154" t="s">
+        <v>82</v>
+      </c>
+      <c r="L66" s="154" t="s">
+        <v>83</v>
+      </c>
+      <c r="M66" s="164">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="N66" s="154" t="s">
+        <v>84</v>
+      </c>
+      <c r="O66" s="165">
+        <v>42221</v>
+      </c>
+      <c r="P66" s="166" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q66" s="163"/>
+    </row>
+    <row r="67" spans="2:17" ht="16" thickBot="1">
       <c r="B67" s="88"/>
       <c r="C67" s="89"/>
-      <c r="F67" s="81">
-        <f>F66/365</f>
-        <v>1.3882298937068493</v>
-      </c>
-      <c r="G67" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="87"/>
-    </row>
-    <row r="68" spans="2:14">
+      <c r="D67" s="89"/>
+      <c r="J67" s="167"/>
+      <c r="K67" s="168"/>
+      <c r="L67" s="168"/>
+      <c r="M67" s="168"/>
+      <c r="N67" s="168"/>
+      <c r="O67" s="168"/>
+      <c r="P67" s="168"/>
+      <c r="Q67" s="169"/>
+    </row>
+    <row r="68" spans="2:17">
       <c r="B68" s="88"/>
       <c r="C68" s="89"/>
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
       <c r="M68" s="89"/>
-      <c r="N68" s="87"/>
-    </row>
-    <row r="69" spans="2:14">
+    </row>
+    <row r="69" spans="2:17">
       <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
-      <c r="F69" s="81" t="s">
-        <v>95</v>
+      <c r="C69" s="89" t="s">
+        <v>79</v>
       </c>
       <c r="K69" s="89"/>
       <c r="L69" s="89"/>
       <c r="M69" s="89"/>
-      <c r="N69" s="87"/>
-    </row>
-    <row r="70" spans="2:14">
+    </row>
+    <row r="70" spans="2:17">
       <c r="B70" s="88"/>
-      <c r="C70" s="89" t="s">
-        <v>79</v>
+      <c r="C70" s="89"/>
+      <c r="D70" s="81">
+        <v>70</v>
       </c>
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
       <c r="M70" s="89"/>
-      <c r="N70" s="87"/>
-    </row>
-    <row r="71" spans="2:14">
+    </row>
+    <row r="71" spans="2:17">
       <c r="B71" s="88"/>
       <c r="C71" s="89"/>
-      <c r="D71" s="81">
-        <v>70</v>
-      </c>
       <c r="E71" s="81">
-        <f>E59*F67/F60</f>
-        <v>44197452.103270732</v>
+        <f>34.4925*10^6</f>
+        <v>34492500</v>
       </c>
       <c r="F71" s="81" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="G71" s="81" t="s">
+        <v>121</v>
       </c>
       <c r="K71" s="89"/>
       <c r="L71" s="89"/>
       <c r="M71" s="89"/>
-      <c r="N71" s="87"/>
-    </row>
-    <row r="72" spans="2:14">
+    </row>
+    <row r="72" spans="2:17">
       <c r="B72" s="88"/>
       <c r="C72" s="89"/>
-      <c r="E72" s="81">
-        <f>Exchange_rates!E9</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F72" s="81" t="s">
-        <v>97</v>
+      <c r="F72" s="81">
+        <v>1.0833999999999999</v>
+      </c>
+      <c r="G72" s="81" t="s">
+        <v>94</v>
       </c>
       <c r="K72" s="89"/>
       <c r="L72" s="89"/>
       <c r="M72" s="89"/>
-      <c r="N72" s="87"/>
-    </row>
-    <row r="73" spans="2:14">
+    </row>
+    <row r="73" spans="2:17">
       <c r="B73" s="88"/>
       <c r="C73" s="89"/>
-      <c r="E73" s="81">
-        <f>E71/E72</f>
-        <v>40252688.618643649</v>
-      </c>
-      <c r="F73" s="81" t="s">
-        <v>99</v>
-      </c>
       <c r="K73" s="89"/>
       <c r="L73" s="89"/>
       <c r="M73" s="89"/>
-      <c r="N73" s="87"/>
-    </row>
-    <row r="74" spans="2:14">
+    </row>
+    <row r="74" spans="2:17">
       <c r="B74" s="88"/>
+      <c r="C74" s="89"/>
+      <c r="F74" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" s="81" t="s">
+        <v>119</v>
+      </c>
       <c r="K74" s="89"/>
       <c r="L74" s="89"/>
       <c r="M74" s="89"/>
-      <c r="N74" s="87"/>
-    </row>
-    <row r="75" spans="2:14">
+    </row>
+    <row r="75" spans="2:17">
       <c r="B75" s="88"/>
+      <c r="C75" s="89"/>
+      <c r="F75" s="81">
+        <v>16</v>
+      </c>
+      <c r="G75" s="81" t="s">
+        <v>88</v>
+      </c>
       <c r="K75" s="89"/>
       <c r="L75" s="89"/>
       <c r="M75" s="89"/>
-      <c r="N75" s="87"/>
-    </row>
-    <row r="76" spans="2:14">
+    </row>
+    <row r="76" spans="2:17">
       <c r="B76" s="88"/>
-    </row>
-    <row r="77" spans="2:14">
+      <c r="C76" s="89"/>
+      <c r="F76" s="81">
+        <f>16000000000*0.833</f>
+        <v>13328000000</v>
+      </c>
+      <c r="G76" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="K76" s="89"/>
+      <c r="L76" s="89"/>
+      <c r="M76" s="89"/>
+    </row>
+    <row r="77" spans="2:17">
       <c r="B77" s="88"/>
-      <c r="E77" s="81">
-        <v>0.12364799999999999</v>
-      </c>
-      <c r="F77" s="81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14">
+      <c r="C77" s="89"/>
+      <c r="F77" s="81">
+        <f>F76*38.018--7203</f>
+        <v>506703911203</v>
+      </c>
+      <c r="G77" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+    </row>
+    <row r="78" spans="2:17">
       <c r="B78" s="88"/>
-      <c r="E78" s="81">
-        <f>E77/1000</f>
-        <v>1.2364799999999999E-4</v>
-      </c>
-      <c r="F78" s="81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14">
+      <c r="C78" s="89"/>
+      <c r="F78" s="81">
+        <f>F77/(10^9)</f>
+        <v>506.70391120300002</v>
+      </c>
+      <c r="G78" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="K78" s="89"/>
+      <c r="L78" s="89"/>
+      <c r="M78" s="89"/>
+    </row>
+    <row r="79" spans="2:17">
       <c r="B79" s="88"/>
       <c r="C79" s="89"/>
-      <c r="E79" s="81">
-        <f>Exchange_rates!E9</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F79" s="81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14">
+      <c r="F79" s="81">
+        <f>F78/365</f>
+        <v>1.3882298937068493</v>
+      </c>
+      <c r="G79" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" s="89"/>
+      <c r="L79" s="89"/>
+      <c r="M79" s="89"/>
+    </row>
+    <row r="80" spans="2:17">
       <c r="B80" s="88"/>
       <c r="C80" s="89"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="81">
-        <f>E78/E79</f>
-        <v>1.1261202185792348E-4</v>
-      </c>
-      <c r="F80" s="81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="K80" s="89"/>
+      <c r="L80" s="89"/>
+      <c r="M80" s="89"/>
+    </row>
+    <row r="81" spans="2:13">
       <c r="B81" s="88"/>
       <c r="C81" s="89"/>
-    </row>
-    <row r="82" spans="2:3">
+      <c r="F81" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="K81" s="89"/>
+      <c r="L81" s="89"/>
+      <c r="M81" s="89"/>
+    </row>
+    <row r="82" spans="2:13">
       <c r="B82" s="88"/>
-    </row>
-    <row r="83" spans="2:3">
+      <c r="K82" s="89"/>
+      <c r="L82" s="89"/>
+      <c r="M82" s="89"/>
+    </row>
+    <row r="83" spans="2:13">
       <c r="B83" s="88"/>
-    </row>
-    <row r="84" spans="2:3">
+      <c r="C83" s="89"/>
+      <c r="E83" s="81">
+        <f>E71*F79/F72</f>
+        <v>44197452.103270732</v>
+      </c>
+      <c r="F83" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="K83" s="89"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="89"/>
+    </row>
+    <row r="84" spans="2:13">
       <c r="B84" s="88"/>
-    </row>
-    <row r="85" spans="2:3">
+      <c r="C84" s="89"/>
+      <c r="E84" s="170">
+        <f>E66</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F84" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="K84" s="89"/>
+      <c r="L84" s="89"/>
+      <c r="M84" s="89"/>
+    </row>
+    <row r="85" spans="2:13">
       <c r="B85" s="88"/>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="C85" s="89"/>
+      <c r="E85" s="81">
+        <f>E83/E84</f>
+        <v>40252688.618643649</v>
+      </c>
+      <c r="F85" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="K85" s="89"/>
+      <c r="L85" s="89"/>
+      <c r="M85" s="89"/>
+    </row>
+    <row r="86" spans="2:13">
       <c r="B86" s="88"/>
-    </row>
-    <row r="87" spans="2:3">
+      <c r="K86" s="89"/>
+      <c r="L86" s="89"/>
+      <c r="M86" s="89"/>
+    </row>
+    <row r="87" spans="2:13">
       <c r="B87" s="88"/>
-    </row>
-    <row r="88" spans="2:3">
+      <c r="K87" s="89"/>
+      <c r="L87" s="89"/>
+      <c r="M87" s="89"/>
+    </row>
+    <row r="88" spans="2:13">
       <c r="B88" s="88"/>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:13">
       <c r="B89" s="88"/>
-    </row>
-    <row r="90" spans="2:3">
+      <c r="E89" s="81">
+        <v>0.12364799999999999</v>
+      </c>
+      <c r="F89" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13">
       <c r="B90" s="88"/>
-    </row>
-    <row r="91" spans="2:3">
+      <c r="E90" s="81">
+        <f>E89/1000</f>
+        <v>1.2364799999999999E-4</v>
+      </c>
+      <c r="F90" s="81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13">
       <c r="B91" s="88"/>
-    </row>
-    <row r="92" spans="2:3">
+      <c r="C91" s="89"/>
+      <c r="E91" s="170">
+        <f>E66</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F91" s="81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
       <c r="B92" s="88"/>
       <c r="C92" s="89"/>
-    </row>
-    <row r="93" spans="2:3">
+      <c r="D92" s="89"/>
+      <c r="E92" s="81">
+        <f>E90/E91</f>
+        <v>1.1261202185792348E-4</v>
+      </c>
+      <c r="F92" s="81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13">
       <c r="B93" s="88"/>
       <c r="C93" s="89"/>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:13">
       <c r="B94" s="88"/>
-      <c r="C94" s="89"/>
-    </row>
-    <row r="95" spans="2:3">
+    </row>
+    <row r="95" spans="2:13">
       <c r="B95" s="88"/>
       <c r="C95" s="89"/>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:13">
       <c r="B96" s="88"/>
       <c r="C96" s="89"/>
     </row>
@@ -4964,152 +4969,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="47.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="135"/>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="135"/>
-      <c r="B2" s="154" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="135"/>
-      <c r="B3" s="157"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="135"/>
-      <c r="B4" s="160"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1">
-      <c r="A5" s="135"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="135"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="138"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="142"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" thickBot="1">
-      <c r="B8" s="25"/>
-      <c r="I8" s="143"/>
-    </row>
-    <row r="9" spans="1:9" ht="19" thickBot="1">
-      <c r="A9" s="139"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="144" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="145">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="144" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="146">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="147" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="143"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="172">
   <si>
     <t>Source</t>
   </si>
@@ -349,39 +349,18 @@
     <t>Euro/MJ</t>
   </si>
   <si>
-    <t>IEA</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>http://www.eia.gov/forecasts/aeo/nems/documentation/ingm/pdf/ingm(2011).pdf</t>
   </si>
   <si>
-    <t>Fixed operational and maintenance costs</t>
-  </si>
-  <si>
     <t>Scaled to 16 bcm capacity</t>
   </si>
   <si>
-    <t>Variable costs</t>
-  </si>
-  <si>
-    <t>euro/MJ</t>
-  </si>
-  <si>
-    <t>Variable operation and maintenance costs per mj</t>
-  </si>
-  <si>
     <t>Energy Information Administration</t>
   </si>
   <si>
-    <t>variable_operation_and_maintenance_costs_per_mj</t>
-  </si>
-  <si>
-    <t>euro/mj</t>
-  </si>
-  <si>
     <t>DECC</t>
   </si>
   <si>
@@ -416,6 +395,204 @@
   </si>
   <si>
     <t>ECB</t>
+  </si>
+  <si>
+    <t>bcm/year</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <r>
+      <t>variable_operation_and_maintenance_costs_per_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>full_load_hour</t>
+    </r>
+  </si>
+  <si>
+    <t>euro/flh</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Variable operation and maintenance costs per </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flh</t>
+    </r>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>forecasting_error</t>
+  </si>
+  <si>
+    <t>ccs_investment</t>
+  </si>
+  <si>
+    <t>cost_of_installing</t>
+  </si>
+  <si>
+    <t>decommissioning_costs</t>
+  </si>
+  <si>
+    <t>variable_operation_and_maintenance_costs_per_full_load_hour</t>
+  </si>
+  <si>
+    <t>variable_operation_and_maintenance_costs_for_ccs_per_full_load_hour</t>
+  </si>
+  <si>
+    <t>takes_part_in_ets</t>
+  </si>
+  <si>
+    <t>wacc</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>yes=1,no=0</t>
+  </si>
+  <si>
+    <t>Investment cost with ccs</t>
+  </si>
+  <si>
+    <t>Installation cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decommissioning cost </t>
+  </si>
+  <si>
+    <t>Variable operational and maintenance costs for ccs</t>
+  </si>
+  <si>
+    <t>Weighted average cost of capita</t>
+  </si>
+  <si>
+    <t>land_use_per_unit</t>
+  </si>
+  <si>
+    <t>construction_time</t>
+  </si>
+  <si>
+    <t>km2</t>
+  </si>
+  <si>
+    <t>Construction time</t>
+  </si>
+  <si>
+    <t>full_load_hours</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Mdollar</t>
+  </si>
+  <si>
+    <t>retirement_costs</t>
+  </si>
+  <si>
+    <t>decommissioniing_costs</t>
+  </si>
+  <si>
+    <t>No CCS</t>
+  </si>
+  <si>
+    <t>Included in initial_investment</t>
+  </si>
+  <si>
+    <t>Decommissioning costs</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>http://gate.nl/en/commercial/operational-data.html</t>
+  </si>
+  <si>
+    <t>natural_gas_output_capacity</t>
+  </si>
+  <si>
+    <t>natural_gas_output_per_full_load_hour</t>
+  </si>
+  <si>
+    <t>MJ/flh</t>
+  </si>
+  <si>
+    <t>variable o&amp;m per flh</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M per year</t>
+  </si>
+  <si>
+    <t>GATE Terminal</t>
+  </si>
+  <si>
+    <t>GATE</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>2008-2011 construction</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t>Department of Energy and Climate Change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Ministerie van Economische Zaken</t>
+    </r>
+  </si>
+  <si>
+    <t>Quintel Assumption</t>
+  </si>
+  <si>
+    <t>Input capacity (output capacity divided by efficiency)</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Full load hours</t>
+  </si>
+  <si>
+    <t>Land use per unit</t>
   </si>
 </sst>
 </file>
@@ -428,12 +605,26 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -656,6 +847,11 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
     </font>
@@ -953,495 +1149,596 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="280">
+  <cellStyleXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="167" fontId="28" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1449,57 +1746,62 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="280">
+  <cellStyles count="357">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1690,6 +1992,83 @@
     <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2045,6 +2424,44 @@
         <a:xfrm>
           <a:off x="7213600" y="11036300"/>
           <a:ext cx="12014200" cy="4711700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350000" y="21907500"/>
+          <a:ext cx="4267200" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2564,105 +2981,105 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="92"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="95" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="94"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="97" t="s">
+      <c r="B13" s="93"/>
+      <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="95" t="s">
+      <c r="B14" s="93"/>
+      <c r="C14" s="94" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="95"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="94"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="99" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="98" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="100" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="99" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="101" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="100" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103" t="s">
+      <c r="B20" s="101"/>
+      <c r="C20" s="102" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="104" t="s">
+      <c r="B21" s="101"/>
+      <c r="C21" s="103" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="105" t="s">
+      <c r="B22" s="101"/>
+      <c r="C22" s="104" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="102"/>
-      <c r="C23" s="106" t="s">
+      <c r="B23" s="101"/>
+      <c r="C23" s="105" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2682,9 +3099,9 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K22"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -2698,59 +3115,59 @@
     <col min="6" max="6" width="4.625" style="36" customWidth="1"/>
     <col min="7" max="7" width="34" style="36" customWidth="1"/>
     <col min="8" max="8" width="5.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="36" customWidth="1"/>
+    <col min="9" max="9" width="48.875" style="36" customWidth="1"/>
     <col min="10" max="10" width="5.375" style="36" customWidth="1"/>
     <col min="11" max="16384" width="10.625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="1:11">
       <c r="D1" s="37"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="145" t="s">
+    <row r="2" spans="1:11">
+      <c r="B2" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="147"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="148"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="150"/>
+    <row r="3" spans="1:11">
+      <c r="B3" s="182"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="184"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="148"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="150"/>
+    <row r="4" spans="1:11">
+      <c r="B4" s="182"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="184"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153"/>
+    <row r="5" spans="1:11">
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="187"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:11">
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="2:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="1:11">
       <c r="B8" s="38"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2761,7 +3178,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="2:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -2780,9 +3197,9 @@
       <c r="I9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="113"/>
-    </row>
-    <row r="10" spans="2:11" s="26" customFormat="1">
+      <c r="J9" s="112"/>
+    </row>
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -2793,7 +3210,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>48</v>
@@ -2806,193 +3223,451 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="126" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="132">
         <f>'Research data'!H7</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="F12" s="40"/>
-      <c r="G12" s="127" t="s">
+      <c r="G12" s="126" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="138" t="s">
-        <v>115</v>
+      <c r="I12" s="136" t="s">
+        <v>108</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="41"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="13" t="s">
+    <row r="13" spans="1:11" ht="16" thickBot="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="132">
+        <f>'Research data'!H8</f>
+        <v>12225.744522078652</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" thickBot="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="162" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="132">
+        <f>'Research data'!H9</f>
+        <v>0.99</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="162" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="178" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" thickBot="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="162" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="132">
+        <f>'Research data'!H10</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" thickBot="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="162" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="132">
+        <f>'Research data'!H11</f>
+        <v>8700</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="162" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="178" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="2:11" ht="16" thickBot="1">
+      <c r="B18" s="41"/>
+      <c r="C18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="42">
-        <f>'Research data'!H10</f>
-        <v>1090000000</v>
-      </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="138" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="114"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
-      <c r="B16" s="41"/>
-      <c r="C16" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="112">
-        <f>'Research data'!L11</f>
-        <v>40252688.618643649</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="114"/>
-    </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="137" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="143">
-        <f>'Research data'!H12</f>
-        <v>1.1261202185792348E-4</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="137" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="40"/>
-      <c r="I17" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="114"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="41"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="114"/>
-    </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+      <c r="I18" s="37"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="2:11" ht="16" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="114"/>
-    </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+      <c r="C19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="42">
+        <f>'Research data'!H14</f>
+        <v>1090000000</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="40"/>
+      <c r="I19" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="113"/>
+    </row>
+    <row r="20" spans="2:11" ht="16" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="111">
+        <f>'Research data'!L15</f>
+        <v>30189516.034826603</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="113"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" customHeight="1" thickBot="1">
+      <c r="B21" s="41"/>
+      <c r="C21" s="162" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="140">
+        <f>'Research data'!H16</f>
+        <v>4885.3554034882845</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="113"/>
+    </row>
+    <row r="22" spans="2:11" ht="16" thickBot="1">
+      <c r="B22" s="41"/>
+      <c r="C22" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="132">
+        <f>'Research data'!H17</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="162" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="113"/>
+    </row>
+    <row r="23" spans="2:11" ht="16" thickBot="1">
+      <c r="B23" s="41"/>
+      <c r="C23" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="132">
+        <f>'Research data'!H18</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="162" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="113"/>
+    </row>
+    <row r="24" spans="2:11" ht="16" thickBot="1">
+      <c r="B24" s="41"/>
+      <c r="C24" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="132">
+        <f>'Research data'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="162" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="113"/>
+    </row>
+    <row r="25" spans="2:11" ht="16" thickBot="1">
+      <c r="B25" s="41"/>
+      <c r="C25" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="132">
+        <f>'Research data'!H20</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="162" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="178" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="113"/>
+    </row>
+    <row r="26" spans="2:11" ht="16" thickBot="1">
+      <c r="B26" s="41"/>
+      <c r="C26" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="132">
+        <f>'Research data'!H21</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="178" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="113"/>
+    </row>
+    <row r="27" spans="2:11" ht="16" thickBot="1">
+      <c r="B27" s="41"/>
+      <c r="C27" s="162" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="132">
+        <f>'Research data'!H22</f>
+        <v>0.1</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="162" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="178" t="s">
+        <v>167</v>
+      </c>
+      <c r="J27" s="113"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="41"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="113"/>
+    </row>
+    <row r="29" spans="2:11" ht="16" thickBot="1">
+      <c r="B29" s="41"/>
+      <c r="C29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="113"/>
+    </row>
+    <row r="30" spans="2:11" ht="16" thickBot="1">
+      <c r="B30" s="41"/>
+      <c r="C30" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D30" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="42">
-        <f>'Research data'!H15</f>
+      <c r="E30" s="42">
+        <f>'Research data'!H25</f>
         <v>40</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="90" t="s">
+      <c r="F30" s="40"/>
+      <c r="G30" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="129" t="s">
+      <c r="H30" s="40"/>
+      <c r="I30" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="114"/>
-    </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="40" t="s">
+      <c r="J30" s="113"/>
+    </row>
+    <row r="31" spans="2:11" ht="16" thickBot="1">
+      <c r="B31" s="41"/>
+      <c r="C31" s="162" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="177">
+        <f>'Research data'!H26</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="162" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="178" t="s">
+        <v>161</v>
+      </c>
+      <c r="J31" s="113"/>
+    </row>
+    <row r="32" spans="2:11" ht="16" thickBot="1">
+      <c r="B32" s="41"/>
+      <c r="C32" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="42">
+        <f>'Research data'!H27</f>
+        <v>3</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="162" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" s="40"/>
+      <c r="I32" s="178" t="s">
+        <v>161</v>
+      </c>
+      <c r="J32" s="113"/>
+    </row>
+    <row r="33" spans="2:10" ht="16" thickBot="1">
+      <c r="B33" s="41"/>
+      <c r="C33" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D33" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E33" s="42">
         <v>0</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="114"/>
-    </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="113"/>
+    </row>
+    <row r="34" spans="2:10" ht="16" thickBot="1">
+      <c r="B34" s="43"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3045,10 +3720,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:T16"/>
+  <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3068,16 +3743,19 @@
     <col min="13" max="13" width="2.375" style="46" customWidth="1"/>
     <col min="14" max="14" width="14.875" style="46" customWidth="1"/>
     <col min="15" max="15" width="2.125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="46" customWidth="1"/>
-    <col min="17" max="17" width="2.875" style="46" customWidth="1"/>
-    <col min="18" max="18" width="11" style="46" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="46" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="46" customWidth="1"/>
+    <col min="17" max="17" width="2.25" style="46" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="46" customWidth="1"/>
+    <col min="19" max="19" width="2.625" style="46" customWidth="1"/>
     <col min="20" max="20" width="22.375" style="46" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="46"/>
+    <col min="21" max="21" width="11" style="46" customWidth="1"/>
+    <col min="22" max="22" width="2.5" style="46" customWidth="1"/>
+    <col min="23" max="23" width="22.375" style="46" customWidth="1"/>
+    <col min="24" max="16384" width="10.625" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="16" thickBot="1"/>
-    <row r="3" spans="2:20">
+    <row r="2" spans="2:23" ht="16" thickBot="1"/>
+    <row r="3" spans="2:23">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -3097,56 +3775,66 @@
       <c r="R3" s="48"/>
       <c r="S3" s="48"/>
       <c r="T3" s="48"/>
-    </row>
-    <row r="4" spans="2:20" s="26" customFormat="1">
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+    </row>
+    <row r="4" spans="2:23" s="26" customFormat="1">
       <c r="B4" s="25"/>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="107" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="107"/>
+      <c r="H4" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108" t="s">
+      <c r="I4" s="107"/>
+      <c r="J4" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108" t="s">
+      <c r="K4" s="107"/>
+      <c r="L4" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108" t="s">
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107" t="s">
+        <v>162</v>
+      </c>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:20" ht="18" customHeight="1">
+    <row r="5" spans="2:23" ht="18" customHeight="1">
       <c r="B5" s="49"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="56"/>
-      <c r="Q5" s="64"/>
-    </row>
-    <row r="6" spans="2:20" ht="18" customHeight="1" thickBot="1">
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="55"/>
+      <c r="T5" s="63"/>
+    </row>
+    <row r="6" spans="2:23" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="49"/>
       <c r="C6" s="12" t="s">
         <v>48</v>
@@ -3164,196 +3852,546 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
       <c r="P6" s="50"/>
-      <c r="Q6" s="62"/>
-    </row>
-    <row r="7" spans="2:20" ht="16" thickBot="1">
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="61"/>
+    </row>
+    <row r="7" spans="2:23" ht="16" thickBot="1">
       <c r="B7" s="49"/>
-      <c r="C7" s="128" t="s">
+      <c r="C7" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="130" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="132">
+      <c r="G7" s="108"/>
+      <c r="H7" s="131">
         <f>J7</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="132">
+      <c r="I7" s="53"/>
+      <c r="J7" s="131">
         <f>Notes!E47</f>
         <v>0.98499999999999999</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="63"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="53"/>
       <c r="O7" s="50"/>
       <c r="P7" s="50"/>
-      <c r="Q7" s="144"/>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="141"/>
+    </row>
+    <row r="8" spans="2:23" ht="16" thickBot="1">
       <c r="B8" s="49"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="63"/>
+      <c r="C8" s="160" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="161" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="108"/>
+      <c r="H8" s="131">
+        <f>N8</f>
+        <v>12225.744522078652</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="54">
+        <f>Notes!E109</f>
+        <v>12225.744522078652</v>
+      </c>
       <c r="O8" s="50"/>
       <c r="P8" s="50"/>
-      <c r="Q8" s="68"/>
-    </row>
-    <row r="9" spans="2:20" ht="16" thickBot="1">
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+      <c r="T8" s="141"/>
+    </row>
+    <row r="9" spans="2:23" ht="16" thickBot="1">
       <c r="B9" s="49"/>
-      <c r="C9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="50"/>
+      <c r="C9" s="160" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="108"/>
+      <c r="H9" s="131">
+        <v>0.99</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="50"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="68"/>
-    </row>
-    <row r="10" spans="2:20" ht="16" thickBot="1">
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="165" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="16" thickBot="1">
       <c r="B10" s="49"/>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="160" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="161" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="108"/>
+      <c r="H10" s="131">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="141"/>
+    </row>
+    <row r="11" spans="2:23" ht="16" thickBot="1">
+      <c r="B11" s="49"/>
+      <c r="C11" s="160" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="161" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="108"/>
+      <c r="H11" s="169">
+        <f>R11</f>
+        <v>8700</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="54">
+        <f>Notes!E128</f>
+        <v>8700</v>
+      </c>
+      <c r="S11" s="50"/>
+      <c r="T11" s="165" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="49"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="67"/>
+    </row>
+    <row r="13" spans="2:23" ht="16" thickBot="1">
+      <c r="B13" s="49"/>
+      <c r="C13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="67"/>
+    </row>
+    <row r="14" spans="2:23" ht="16" thickBot="1">
+      <c r="B14" s="49"/>
+      <c r="C14" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="65" t="s">
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="55">
-        <f>N10</f>
+      <c r="G14" s="109"/>
+      <c r="H14" s="54">
+        <f>N14</f>
         <v>1090000000</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="K10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="55">
+      <c r="I14" s="11"/>
+      <c r="K14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="54">
         <f>Notes!E19+Notes!E13</f>
         <v>1090000000</v>
       </c>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="136" t="s">
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="135" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="16" thickBot="1">
-      <c r="B11" s="49"/>
-      <c r="C11" s="140" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="107" t="s">
+    <row r="15" spans="2:23" ht="16" thickBot="1">
+      <c r="B15" s="49"/>
+      <c r="C15" s="162" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="55">
-        <f>L11</f>
-        <v>40252688.618643649</v>
-      </c>
-      <c r="I11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="55">
+      <c r="G15" s="110"/>
+      <c r="H15" s="54">
+        <f>L15</f>
+        <v>30189516.034826603</v>
+      </c>
+      <c r="I15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="54">
         <f>Notes!E85</f>
-        <v>40252688.618643649</v>
-      </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="53"/>
-    </row>
-    <row r="12" spans="2:20" ht="16" thickBot="1">
-      <c r="B12" s="49"/>
-      <c r="C12" s="140" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="142">
-        <f>L12</f>
-        <v>1.1261202185792348E-4</v>
-      </c>
-      <c r="I12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="142">
-        <f>Notes!E92</f>
-        <v>1.1261202185792348E-4</v>
-      </c>
-      <c r="M12" s="61"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="136" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="64"/>
-    </row>
-    <row r="14" spans="2:20" ht="16" thickBot="1">
-      <c r="B14" s="49"/>
-      <c r="C14" s="26" t="s">
+        <v>30189516.034826603</v>
+      </c>
+      <c r="M15" s="60"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="52"/>
+    </row>
+    <row r="16" spans="2:23" ht="16" thickBot="1">
+      <c r="B16" s="49"/>
+      <c r="C16" s="162" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="110"/>
+      <c r="H16" s="139">
+        <f>L16</f>
+        <v>4885.3554034882845</v>
+      </c>
+      <c r="I16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="139">
+        <f>Notes!E99</f>
+        <v>4885.3554034882845</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="135" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="16" thickBot="1">
+      <c r="B17" s="49"/>
+      <c r="C17" s="162" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="110"/>
+      <c r="H17" s="54">
+        <v>0</v>
+      </c>
+      <c r="I17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="165" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="16" thickBot="1">
+      <c r="B18" s="49"/>
+      <c r="C18" s="162" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="110"/>
+      <c r="H18" s="54">
+        <v>0</v>
+      </c>
+      <c r="I18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="165" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="16" thickBot="1">
+      <c r="B19" s="49"/>
+      <c r="C19" s="162" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="161" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="110"/>
+      <c r="H19" s="54">
+        <f>L19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="54">
+        <f>Notes!E88</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="60"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="135"/>
+    </row>
+    <row r="20" spans="2:20" ht="16" thickBot="1">
+      <c r="B20" s="49"/>
+      <c r="C20" s="162" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="110"/>
+      <c r="H20" s="54">
+        <v>0</v>
+      </c>
+      <c r="I20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="165" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="16" thickBot="1">
+      <c r="B21" s="49"/>
+      <c r="C21" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="110"/>
+      <c r="H21" s="54">
+        <v>1</v>
+      </c>
+      <c r="I21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="135"/>
+    </row>
+    <row r="22" spans="2:20" ht="16" thickBot="1">
+      <c r="B22" s="49"/>
+      <c r="C22" s="162" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="110"/>
+      <c r="H22" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="I22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="163"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="165" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="49"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="63"/>
+    </row>
+    <row r="24" spans="2:20" ht="16" thickBot="1">
+      <c r="B24" s="49"/>
+      <c r="C24" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="67"/>
-    </row>
-    <row r="15" spans="2:20" ht="16" thickBot="1">
-      <c r="B15" s="49"/>
-      <c r="C15" s="128" t="s">
+      <c r="S24" s="53"/>
+      <c r="T24" s="66"/>
+    </row>
+    <row r="25" spans="2:20" ht="16" thickBot="1">
+      <c r="B25" s="49"/>
+      <c r="C25" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="131" t="s">
+      <c r="F25" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="60">
-        <f>L15</f>
+      <c r="H25" s="59">
+        <f>P25</f>
         <v>40</v>
       </c>
-      <c r="L15" s="60">
-        <f>Notes!E33</f>
+      <c r="P25" s="166">
         <v>40</v>
       </c>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="68"/>
-    </row>
-    <row r="16" spans="2:20" ht="16" thickBot="1">
-      <c r="C16" s="128" t="s">
+      <c r="Q25" s="174"/>
+      <c r="R25" s="174"/>
+      <c r="T25" s="67"/>
+    </row>
+    <row r="26" spans="2:20" ht="16" thickBot="1">
+      <c r="B26" s="49"/>
+      <c r="C26" s="160" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="59">
+        <f>R26</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="L26" s="60"/>
+      <c r="R26" s="54">
+        <f>Notes!E116</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="S26" s="53"/>
+      <c r="T26" s="67"/>
+    </row>
+    <row r="27" spans="2:20" ht="16" thickBot="1">
+      <c r="B27" s="49"/>
+      <c r="C27" s="160" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="164" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="59">
+        <f>R27</f>
+        <v>3</v>
+      </c>
+      <c r="R27" s="54">
+        <f>Notes!E121</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="16" thickBot="1">
+      <c r="B28" s="49"/>
+      <c r="C28" s="127" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="H16" s="60"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:20">
+      <c r="B30" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3374,37 +4412,37 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="70" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="70" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="70" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="70" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="70" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="75" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="75" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="70" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="70"/>
+    <col min="1" max="1" width="3.5" style="69" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="69" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="69" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="74" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="74" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="72"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="71"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="73"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
@@ -3414,21 +4452,21 @@
       <c r="G3" s="13"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="69"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="73"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="69"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="78"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
@@ -3455,7 +4493,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="73"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
@@ -3466,26 +4504,26 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="73"/>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="69">
+      <c r="F7" s="68">
         <v>2012</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="68">
         <v>2012</v>
       </c>
-      <c r="H7" s="126">
+      <c r="H7" s="125">
         <v>42278</v>
       </c>
-      <c r="I7" s="121" t="s">
+      <c r="I7" s="120" t="s">
         <v>75</v>
       </c>
       <c r="J7" s="51" t="s">
@@ -3493,174 +4531,194 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="73"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="B8" s="72"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="73"/>
-      <c r="C9" s="79" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="134" t="s">
+      <c r="E9" s="133" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="68">
         <v>2010</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="68">
         <v>2010</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="125">
         <v>42278</v>
       </c>
-      <c r="I9" s="69" t="s">
+      <c r="I9" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="69" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="73"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="120"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="73"/>
-      <c r="C11" s="122" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="121" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="68">
         <v>2014</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="68">
         <v>2014</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="125">
         <v>42278</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="J11" s="69" t="s">
+      <c r="J11" s="68" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="73"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="73"/>
-      <c r="C13" s="139" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="134" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="167" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="134" t="s">
+      <c r="F13" s="68">
+        <v>2013</v>
+      </c>
+      <c r="G13" s="68">
+        <v>2013</v>
+      </c>
+      <c r="H13" s="125">
+        <v>42278</v>
+      </c>
+      <c r="I13" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="69">
-        <v>2013</v>
-      </c>
-      <c r="G13" s="69">
-        <v>2013</v>
-      </c>
-      <c r="H13" s="126">
-        <v>42278</v>
-      </c>
-      <c r="I13" s="121" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="119" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="73"/>
-      <c r="C14" s="79" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="73"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="168" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="73"/>
+      <c r="B16" s="72"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="73"/>
+      <c r="B17" s="72"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="73"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="167" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="167" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="68">
+        <v>2015</v>
+      </c>
+      <c r="G18" s="68">
+        <v>2014</v>
+      </c>
+      <c r="H18" s="173">
+        <v>42370</v>
+      </c>
+      <c r="I18" s="68"/>
+      <c r="J18" s="171" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="73"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="69"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="176" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="73"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3678,1286 +4736,1434 @@
   </sheetPr>
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="81" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="81" customWidth="1"/>
-    <col min="4" max="4" width="4" style="81" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="81" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="81" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="81"/>
-    <col min="9" max="9" width="13" style="81" customWidth="1"/>
-    <col min="10" max="13" width="10.625" style="81"/>
-    <col min="14" max="14" width="16.125" style="81" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="81"/>
-    <col min="16" max="16" width="55.75" style="81" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="81"/>
+    <col min="1" max="1" width="3.625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="80" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="80" customWidth="1"/>
+    <col min="4" max="4" width="4" style="80" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="80" customWidth="1"/>
+    <col min="6" max="6" width="5.625" style="80" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="80"/>
+    <col min="9" max="9" width="13" style="80" customWidth="1"/>
+    <col min="10" max="13" width="10.625" style="80"/>
+    <col min="14" max="14" width="16.125" style="80" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="80"/>
+    <col min="16" max="16" width="55.75" style="80" customWidth="1"/>
+    <col min="17" max="16384" width="10.625" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="16" thickBot="1"/>
     <row r="2" spans="1:14">
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="85"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="91" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="117"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="86"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="86"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="87"/>
+      <c r="C6" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="88"/>
+      <c r="G6" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="87"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88">
+        <v>66</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88">
+        <v>12</v>
+      </c>
+      <c r="F11" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="118"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="87"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="87"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="89"/>
-      <c r="G6" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89">
-        <v>66</v>
-      </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89">
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88">
         <f>290*10^6</f>
         <v>290000000</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="89">
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88">
         <v>22</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88">
         <v>800000000</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="88"/>
+      <c r="M21" s="88"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="88"/>
-      <c r="C33" s="89" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="89">
+      <c r="D33" s="88">
         <v>128</v>
       </c>
-      <c r="E33" s="89">
+      <c r="E33" s="88">
         <v>40</v>
       </c>
-      <c r="F33" s="89" t="s">
+      <c r="F33" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="88"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
+      <c r="B34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="89"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="88"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="89"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="88"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="88"/>
-      <c r="C42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="89"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="88"/>
-      <c r="C44" s="89"/>
-      <c r="K44" s="89"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="89"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="88"/>
-      <c r="C45" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="88"/>
-      <c r="C46" s="89"/>
-      <c r="E46" s="124">
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="E46" s="123">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
+      <c r="F46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="88"/>
-      <c r="C47" s="89"/>
-      <c r="E47" s="89">
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="E47" s="88">
         <v>0.98499999999999999</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="K47" s="89"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="88"/>
-      <c r="C48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="89"/>
-      <c r="M48" s="89"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="88"/>
-      <c r="C49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="89"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="88"/>
+      <c r="B50" s="87"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="88"/>
+      <c r="B51" s="87"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="88"/>
+      <c r="B52" s="87"/>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="88"/>
+      <c r="B53" s="87"/>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="88"/>
+      <c r="B54" s="87"/>
     </row>
     <row r="55" spans="2:17">
-      <c r="B55" s="88"/>
+      <c r="B55" s="87"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="88"/>
+      <c r="B56" s="87"/>
     </row>
     <row r="57" spans="2:17">
-      <c r="B57" s="88"/>
+      <c r="B57" s="87"/>
     </row>
     <row r="58" spans="2:17">
-      <c r="B58" s="88"/>
+      <c r="B58" s="87"/>
     </row>
     <row r="59" spans="2:17">
-      <c r="B59" s="88"/>
+      <c r="B59" s="87"/>
     </row>
     <row r="60" spans="2:17">
-      <c r="B60" s="88"/>
+      <c r="B60" s="87"/>
     </row>
     <row r="61" spans="2:17">
-      <c r="B61" s="88"/>
+      <c r="B61" s="87"/>
     </row>
     <row r="62" spans="2:17" ht="16" thickBot="1">
-      <c r="B62" s="88"/>
-      <c r="C62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="89"/>
-      <c r="M62" s="89"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="K62" s="88"/>
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
     </row>
     <row r="63" spans="2:17">
-      <c r="B63" s="88"/>
-      <c r="C63" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="89"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="156"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="156"/>
-      <c r="P63" s="156"/>
-      <c r="Q63" s="157"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="88"/>
+      <c r="J63" s="143"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
+      <c r="O63" s="144"/>
+      <c r="P63" s="144"/>
+      <c r="Q63" s="145"/>
     </row>
     <row r="64" spans="2:17" ht="18">
-      <c r="B64" s="88"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="J64" s="158"/>
-      <c r="K64" s="159" t="s">
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="88"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="L64" s="159" t="s">
+      <c r="L64" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="M64" s="159" t="s">
+      <c r="M64" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="N64" s="159" t="s">
+      <c r="N64" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="O64" s="159" t="s">
+      <c r="O64" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="P64" s="159" t="s">
+      <c r="P64" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="Q64" s="160"/>
+      <c r="Q64" s="148"/>
     </row>
     <row r="65" spans="2:17" ht="19" thickBot="1">
-      <c r="B65" s="88"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
-      <c r="J65" s="161"/>
-      <c r="K65" s="162"/>
-      <c r="L65" s="162"/>
-      <c r="M65" s="162"/>
-      <c r="N65" s="162"/>
-      <c r="O65" s="162"/>
-      <c r="P65" s="162"/>
-      <c r="Q65" s="163"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="88"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="150"/>
+      <c r="L65" s="150"/>
+      <c r="M65" s="150"/>
+      <c r="N65" s="150"/>
+      <c r="O65" s="150"/>
+      <c r="P65" s="150"/>
+      <c r="Q65" s="151"/>
     </row>
     <row r="66" spans="2:17" ht="19" thickBot="1">
-      <c r="B66" s="88"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="170">
+      <c r="B66" s="87"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="158">
         <f>M66</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="F66" s="81" t="s">
+      <c r="F66" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="J66" s="161"/>
-      <c r="K66" s="154" t="s">
+      <c r="J66" s="149"/>
+      <c r="K66" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="L66" s="154" t="s">
+      <c r="L66" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="M66" s="164">
+      <c r="M66" s="152">
         <v>1.0980000000000001</v>
       </c>
-      <c r="N66" s="154" t="s">
+      <c r="N66" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="O66" s="165">
+      <c r="O66" s="153">
         <v>42221</v>
       </c>
-      <c r="P66" s="166" t="s">
+      <c r="P66" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="Q66" s="163"/>
+      <c r="Q66" s="151"/>
     </row>
     <row r="67" spans="2:17" ht="16" thickBot="1">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="J67" s="167"/>
-      <c r="K67" s="168"/>
-      <c r="L67" s="168"/>
-      <c r="M67" s="168"/>
-      <c r="N67" s="168"/>
-      <c r="O67" s="168"/>
-      <c r="P67" s="168"/>
-      <c r="Q67" s="169"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="J67" s="155"/>
+      <c r="K67" s="156"/>
+      <c r="L67" s="156"/>
+      <c r="M67" s="156"/>
+      <c r="N67" s="156"/>
+      <c r="O67" s="156"/>
+      <c r="P67" s="156"/>
+      <c r="Q67" s="157"/>
     </row>
     <row r="68" spans="2:17">
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="89"/>
-      <c r="M68" s="89"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="88"/>
+      <c r="M68" s="88"/>
     </row>
     <row r="69" spans="2:17">
-      <c r="B69" s="88"/>
-      <c r="C69" s="89" t="s">
+      <c r="B69" s="87"/>
+      <c r="C69" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
+      <c r="K69" s="88"/>
+      <c r="L69" s="88"/>
+      <c r="M69" s="88"/>
     </row>
     <row r="70" spans="2:17">
-      <c r="B70" s="88"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="81">
+      <c r="B70" s="87"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="80">
         <v>70</v>
       </c>
-      <c r="K70" s="89"/>
-      <c r="L70" s="89"/>
-      <c r="M70" s="89"/>
+      <c r="K70" s="88"/>
+      <c r="L70" s="88"/>
+      <c r="M70" s="88"/>
     </row>
     <row r="71" spans="2:17">
-      <c r="B71" s="88"/>
-      <c r="C71" s="89"/>
-      <c r="E71" s="81">
+      <c r="B71" s="87"/>
+      <c r="C71" s="88"/>
+      <c r="E71" s="80">
         <f>34.4925*10^6</f>
         <v>34492500</v>
       </c>
-      <c r="F71" s="81" t="s">
+      <c r="F71" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="81" t="s">
-        <v>121</v>
-      </c>
-      <c r="K71" s="89"/>
-      <c r="L71" s="89"/>
-      <c r="M71" s="89"/>
+      <c r="G71" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="K71" s="88"/>
+      <c r="L71" s="88"/>
+      <c r="M71" s="88"/>
     </row>
     <row r="72" spans="2:17">
-      <c r="B72" s="88"/>
-      <c r="C72" s="89"/>
-      <c r="F72" s="81">
+      <c r="B72" s="87"/>
+      <c r="C72" s="88"/>
+      <c r="E72" s="80">
         <v>1.0833999999999999</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="F72" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="K72" s="89"/>
-      <c r="L72" s="89"/>
-      <c r="M72" s="89"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="88"/>
     </row>
     <row r="73" spans="2:17">
-      <c r="B73" s="88"/>
-      <c r="C73" s="89"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="89"/>
-      <c r="M73" s="89"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88"/>
     </row>
     <row r="74" spans="2:17">
-      <c r="B74" s="88"/>
-      <c r="C74" s="89"/>
-      <c r="F74" s="81" t="s">
+      <c r="B74" s="87"/>
+      <c r="C74" s="88"/>
+      <c r="E74" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="H74" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="K74" s="89"/>
-      <c r="L74" s="89"/>
-      <c r="M74" s="89"/>
+      <c r="G74" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="K74" s="88"/>
+      <c r="L74" s="88"/>
+      <c r="M74" s="88"/>
     </row>
     <row r="75" spans="2:17">
-      <c r="B75" s="88"/>
-      <c r="C75" s="89"/>
-      <c r="F75" s="81">
-        <v>16</v>
-      </c>
-      <c r="G75" s="81" t="s">
+      <c r="B75" s="87"/>
+      <c r="C75" s="88"/>
+      <c r="E75" s="80">
+        <f>E11</f>
+        <v>12</v>
+      </c>
+      <c r="F75" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="K75" s="89"/>
-      <c r="L75" s="89"/>
-      <c r="M75" s="89"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="88"/>
     </row>
     <row r="76" spans="2:17">
-      <c r="B76" s="88"/>
-      <c r="C76" s="89"/>
-      <c r="F76" s="81">
-        <f>16000000000*0.833</f>
-        <v>13328000000</v>
-      </c>
-      <c r="G76" s="81" t="s">
+      <c r="B76" s="87"/>
+      <c r="C76" s="88"/>
+      <c r="E76" s="80">
+        <f>E75*1000000000*0.833</f>
+        <v>9996000000</v>
+      </c>
+      <c r="F76" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H76" s="81" t="s">
+      <c r="G76" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="K76" s="89"/>
-      <c r="L76" s="89"/>
-      <c r="M76" s="89"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="M76" s="88"/>
     </row>
     <row r="77" spans="2:17">
-      <c r="B77" s="88"/>
-      <c r="C77" s="89"/>
-      <c r="F77" s="81">
-        <f>F76*38.018--7203</f>
-        <v>506703911203</v>
-      </c>
-      <c r="G77" s="81" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
+      <c r="E77" s="80">
+        <f>E76*38.018</f>
+        <v>380027928000</v>
+      </c>
+      <c r="F77" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
+      <c r="G77" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="K77" s="88"/>
+      <c r="L77" s="88"/>
+      <c r="M77" s="88"/>
     </row>
     <row r="78" spans="2:17">
-      <c r="B78" s="88"/>
-      <c r="C78" s="89"/>
-      <c r="F78" s="81">
-        <f>F77/(10^9)</f>
-        <v>506.70391120300002</v>
-      </c>
-      <c r="G78" s="81" t="s">
+      <c r="B78" s="87"/>
+      <c r="C78" s="88"/>
+      <c r="E78" s="80">
+        <f>E77/(10^9)</f>
+        <v>380.02792799999997</v>
+      </c>
+      <c r="F78" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="89"/>
-      <c r="L78" s="89"/>
-      <c r="M78" s="89"/>
+      <c r="K78" s="88"/>
+      <c r="L78" s="88"/>
+      <c r="M78" s="88"/>
     </row>
     <row r="79" spans="2:17">
-      <c r="B79" s="88"/>
-      <c r="C79" s="89"/>
-      <c r="F79" s="81">
-        <f>F78/365</f>
-        <v>1.3882298937068493</v>
-      </c>
-      <c r="G79" s="81" t="s">
+      <c r="B79" s="87"/>
+      <c r="C79" s="88"/>
+      <c r="E79" s="80">
+        <f>E78/365</f>
+        <v>1.041172405479452</v>
+      </c>
+      <c r="F79" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="K79" s="89"/>
-      <c r="L79" s="89"/>
-      <c r="M79" s="89"/>
+      <c r="G79" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="K79" s="88"/>
+      <c r="L79" s="88"/>
+      <c r="M79" s="88"/>
     </row>
     <row r="80" spans="2:17">
-      <c r="B80" s="88"/>
-      <c r="C80" s="89"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="89"/>
-      <c r="M80" s="89"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="K80" s="88"/>
+      <c r="L80" s="88"/>
+      <c r="M80" s="88"/>
     </row>
     <row r="81" spans="2:13">
-      <c r="B81" s="88"/>
-      <c r="C81" s="89"/>
-      <c r="F81" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="K81" s="89"/>
-      <c r="L81" s="89"/>
-      <c r="M81" s="89"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="88"/>
+      <c r="E81" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="K81" s="88"/>
+      <c r="L81" s="88"/>
+      <c r="M81" s="88"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="88"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="89"/>
-      <c r="M82" s="89"/>
+      <c r="B82" s="87"/>
+      <c r="K82" s="88"/>
+      <c r="L82" s="88"/>
+      <c r="M82" s="88"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="88"/>
-      <c r="C83" s="89"/>
-      <c r="E83" s="81">
-        <f>E71*F79/F72</f>
-        <v>44197452.103270732</v>
-      </c>
-      <c r="F83" s="81" t="s">
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
+      <c r="E83" s="80">
+        <f>E71*E79/E72</f>
+        <v>33148088.606239613</v>
+      </c>
+      <c r="F83" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="G83" s="81" t="s">
-        <v>122</v>
-      </c>
-      <c r="K83" s="89"/>
-      <c r="L83" s="89"/>
-      <c r="M83" s="89"/>
+      <c r="G83" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="K83" s="88"/>
+      <c r="L83" s="88"/>
+      <c r="M83" s="88"/>
     </row>
     <row r="84" spans="2:13">
-      <c r="B84" s="88"/>
-      <c r="C84" s="89"/>
-      <c r="E84" s="170">
+      <c r="B84" s="87"/>
+      <c r="C84" s="88"/>
+      <c r="E84" s="158">
         <f>E66</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="F84" s="81" t="s">
+      <c r="F84" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="K84" s="89"/>
-      <c r="L84" s="89"/>
-      <c r="M84" s="89"/>
+      <c r="K84" s="88"/>
+      <c r="L84" s="88"/>
+      <c r="M84" s="88"/>
     </row>
     <row r="85" spans="2:13">
-      <c r="B85" s="88"/>
-      <c r="C85" s="89"/>
-      <c r="E85" s="81">
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
+      <c r="E85" s="80">
         <f>E83/E84</f>
-        <v>40252688.618643649</v>
-      </c>
-      <c r="F85" s="81" t="s">
+        <v>30189516.034826603</v>
+      </c>
+      <c r="F85" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="K85" s="89"/>
-      <c r="L85" s="89"/>
-      <c r="M85" s="89"/>
+      <c r="G85" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K85" s="88"/>
+      <c r="L85" s="88"/>
+      <c r="M85" s="88"/>
     </row>
     <row r="86" spans="2:13">
-      <c r="B86" s="88"/>
-      <c r="K86" s="89"/>
-      <c r="L86" s="89"/>
-      <c r="M86" s="89"/>
+      <c r="B86" s="87"/>
+      <c r="K86" s="88"/>
+      <c r="L86" s="88"/>
+      <c r="M86" s="88"/>
     </row>
     <row r="87" spans="2:13">
-      <c r="B87" s="88"/>
-      <c r="K87" s="89"/>
-      <c r="L87" s="89"/>
-      <c r="M87" s="89"/>
+      <c r="B87" s="87"/>
+      <c r="E87" s="80">
+        <v>0</v>
+      </c>
+      <c r="F87" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="G87" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="K87" s="88"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
     </row>
     <row r="88" spans="2:13">
-      <c r="B88" s="88"/>
+      <c r="B88" s="87"/>
+      <c r="E88" s="80">
+        <f>E87*1000000/E84</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="84" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="89" spans="2:13">
-      <c r="B89" s="88"/>
-      <c r="E89" s="81">
+      <c r="B89" s="87"/>
+    </row>
+    <row r="90" spans="2:13">
+      <c r="B90" s="87"/>
+    </row>
+    <row r="91" spans="2:13">
+      <c r="B91" s="87"/>
+      <c r="C91" s="88"/>
+      <c r="E91" s="80">
         <v>0.12364799999999999</v>
       </c>
-      <c r="F89" s="81" t="s">
+      <c r="F91" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="G89" s="81" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13">
-      <c r="B90" s="88"/>
-      <c r="E90" s="81">
-        <f>E89/1000</f>
+      <c r="G91" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13">
+      <c r="B92" s="87"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="80">
+        <f>E91/1000</f>
         <v>1.2364799999999999E-4</v>
       </c>
-      <c r="F90" s="81" t="s">
+      <c r="F92" s="80" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="2:13">
-      <c r="B91" s="88"/>
-      <c r="C91" s="89"/>
-      <c r="E91" s="170">
+    <row r="93" spans="2:13">
+      <c r="B93" s="87"/>
+      <c r="C93" s="88"/>
+      <c r="E93" s="158">
         <f>E66</f>
         <v>1.0980000000000001</v>
       </c>
-      <c r="F91" s="81" t="s">
+      <c r="F93" s="80" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="2:13">
-      <c r="B92" s="88"/>
-      <c r="C92" s="89"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="81">
-        <f>E90/E91</f>
+    <row r="94" spans="2:13">
+      <c r="B94" s="87"/>
+      <c r="E94" s="80">
+        <f>E92/E93</f>
         <v>1.1261202185792348E-4</v>
       </c>
-      <c r="F92" s="81" t="s">
+      <c r="F94" s="80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="2:13">
-      <c r="B93" s="88"/>
-      <c r="C93" s="89"/>
-    </row>
-    <row r="94" spans="2:13">
-      <c r="B94" s="88"/>
-    </row>
     <row r="95" spans="2:13">
-      <c r="B95" s="88"/>
-      <c r="C95" s="89"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
     </row>
     <row r="96" spans="2:13">
-      <c r="B96" s="88"/>
-      <c r="C96" s="89"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="88"/>
-      <c r="C97" s="89"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="88"/>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="88"/>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="88"/>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="88"/>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="88"/>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="88"/>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="88"/>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="88"/>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="88"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="88"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="88"/>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="88"/>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="88"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="88"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="88"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="88"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="88"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="88"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="88"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="88"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="88"/>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="88"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="88"/>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="88"/>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="88"/>
-    </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="88"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="88"/>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="88"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="88"/>
-    </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="88"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="88"/>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="88"/>
-    </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="88"/>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="88"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="88"/>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="88"/>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="88"/>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="88"/>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="88"/>
-    </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="88"/>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="88"/>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="88"/>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="88"/>
-    </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="88"/>
-    </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="88"/>
-    </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="88"/>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="88"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="88"/>
+      <c r="E96" s="80">
+        <f>E77</f>
+        <v>380027928000</v>
+      </c>
+      <c r="F96" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" s="80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
+      <c r="E97" s="80">
+        <f>E96/8760</f>
+        <v>43382183.561643839</v>
+      </c>
+      <c r="F97" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="87"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="87"/>
+      <c r="E99" s="80">
+        <f>E97*E94</f>
+        <v>4885.3554034882845</v>
+      </c>
+      <c r="F99" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="G99" s="84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="87"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="87"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="87"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="87"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="87"/>
+      <c r="E104" s="80">
+        <f>E77</f>
+        <v>380027928000</v>
+      </c>
+      <c r="F104" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" s="80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="87"/>
+      <c r="E105" s="80">
+        <f>E104/365.25/24/3600</f>
+        <v>12042.358354247472</v>
+      </c>
+      <c r="F105" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="G105" s="80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="87"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="87"/>
+      <c r="E107" s="80">
+        <f>E47</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G107" s="80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="87"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="87"/>
+      <c r="E109" s="80">
+        <f>E105/E107</f>
+        <v>12225.744522078652</v>
+      </c>
+      <c r="F109" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="G109" s="84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="87"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="87"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="87"/>
+    </row>
+    <row r="113" spans="2:9">
+      <c r="B113" s="87"/>
+    </row>
+    <row r="114" spans="2:9">
+      <c r="B114" s="87"/>
+    </row>
+    <row r="115" spans="2:9">
+      <c r="B115" s="87"/>
+      <c r="C115" s="80" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" s="80">
+        <v>35</v>
+      </c>
+      <c r="F115" s="80" t="s">
+        <v>163</v>
+      </c>
+      <c r="G115" s="80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
+      <c r="B116" s="87"/>
+      <c r="E116" s="80">
+        <f>E115*0.01</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F116" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="G116" s="84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
+      <c r="B117" s="87"/>
+    </row>
+    <row r="118" spans="2:9">
+      <c r="B118" s="87"/>
+    </row>
+    <row r="119" spans="2:9">
+      <c r="B119" s="87"/>
+    </row>
+    <row r="120" spans="2:9">
+      <c r="B120" s="87"/>
+      <c r="G120" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
+      <c r="B121" s="87"/>
+      <c r="E121" s="80">
+        <v>3</v>
+      </c>
+      <c r="F121" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G121" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="H121" s="170"/>
+    </row>
+    <row r="122" spans="2:9">
+      <c r="B122" s="87"/>
+    </row>
+    <row r="123" spans="2:9">
+      <c r="B123" s="87"/>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="B124" s="87"/>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="B125" s="87"/>
+    </row>
+    <row r="126" spans="2:9">
+      <c r="B126" s="87"/>
+    </row>
+    <row r="127" spans="2:9">
+      <c r="B127" s="87"/>
+    </row>
+    <row r="128" spans="2:9">
+      <c r="B128" s="87"/>
+      <c r="E128" s="171">
+        <v>8700</v>
+      </c>
+      <c r="F128" s="171"/>
+      <c r="G128" s="175" t="s">
+        <v>145</v>
+      </c>
+      <c r="I128" s="80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="87"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="87"/>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131" s="87"/>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="87"/>
+    </row>
+    <row r="133" spans="2:12">
+      <c r="B133" s="87"/>
+    </row>
+    <row r="134" spans="2:12">
+      <c r="B134" s="87"/>
+    </row>
+    <row r="135" spans="2:12">
+      <c r="B135" s="87"/>
+    </row>
+    <row r="136" spans="2:12">
+      <c r="B136" s="87"/>
+    </row>
+    <row r="137" spans="2:12">
+      <c r="B137" s="87"/>
+    </row>
+    <row r="138" spans="2:12">
+      <c r="B138" s="87"/>
+    </row>
+    <row r="139" spans="2:12">
+      <c r="B139" s="87"/>
+    </row>
+    <row r="140" spans="2:12">
+      <c r="B140" s="87"/>
+    </row>
+    <row r="141" spans="2:12">
+      <c r="B141" s="87"/>
+      <c r="J141" s="171"/>
+      <c r="K141" s="171"/>
+      <c r="L141" s="171"/>
+    </row>
+    <row r="142" spans="2:12">
+      <c r="B142" s="87"/>
+    </row>
+    <row r="143" spans="2:12">
+      <c r="B143" s="87"/>
+    </row>
+    <row r="144" spans="2:12">
+      <c r="B144" s="87"/>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="88"/>
+      <c r="B145" s="87"/>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="88"/>
+      <c r="B146" s="87"/>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="88"/>
+      <c r="B147" s="87"/>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="88"/>
+      <c r="B148" s="87"/>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="88"/>
+      <c r="B149" s="87"/>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="88"/>
+      <c r="B150" s="87"/>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="88"/>
+      <c r="B151" s="87"/>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="88"/>
+      <c r="B152" s="87"/>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="88"/>
+      <c r="B153" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -188,9 +196,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -594,6 +599,10 @@
   <si>
     <t>Land use per unit</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -605,7 +614,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -793,11 +802,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1579,7 +1583,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1630,22 +1634,22 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1671,21 +1675,21 @@
     <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1718,25 +1722,25 @@
     <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="28" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="27" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1754,50 +1758,50 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="17" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2170,77 +2174,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2474,7 +2408,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2917,50 +2851,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2969,29 +2903,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="91" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="92"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="93" t="s">
         <v>31</v>
@@ -3000,33 +2934,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="93"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="93"/>
       <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="93"/>
       <c r="C14" s="94" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="93" t="s">
         <v>36</v>
@@ -3035,49 +2969,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="93"/>
       <c r="C17" s="98" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="93"/>
       <c r="C18" s="99" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="93"/>
       <c r="C19" s="100" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="101"/>
       <c r="C20" s="102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="101"/>
       <c r="C21" s="103" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="101"/>
       <c r="C22" s="104" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="101"/>
       <c r="C23" s="105" t="s">
         <v>44</v>
@@ -3086,46 +3020,41 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="36" customWidth="1"/>
     <col min="3" max="3" width="36" style="36" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="36" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="36" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="36" customWidth="1"/>
     <col min="7" max="7" width="34" style="36" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="48.875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="36"/>
+    <col min="8" max="8" width="5.140625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="48.85546875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="37"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="179" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C2" s="180"/>
       <c r="D2" s="180"/>
@@ -3133,7 +3062,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="182"/>
       <c r="C3" s="183"/>
       <c r="D3" s="183"/>
@@ -3141,7 +3070,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="182"/>
       <c r="C4" s="183"/>
       <c r="D4" s="183"/>
@@ -3149,7 +3078,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="185"/>
       <c r="C5" s="186"/>
       <c r="D5" s="186"/>
@@ -3157,17 +3086,17 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3178,7 +3107,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3199,7 +3128,7 @@
       </c>
       <c r="J9" s="112"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3210,7 +3139,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>48</v>
@@ -3223,10 +3152,10 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>2</v>
@@ -3237,19 +3166,19 @@
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="132">
@@ -3258,20 +3187,20 @@
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="178" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="132">
@@ -3280,20 +3209,20 @@
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="162" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="178" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="162" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="132">
@@ -3307,11 +3236,11 @@
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="162" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="132">
@@ -3320,16 +3249,16 @@
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="162" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="178" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="41"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -3341,7 +3270,7 @@
       <c r="J17" s="113"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="13" t="s">
         <v>47</v>
@@ -3355,7 +3284,7 @@
       <c r="J18" s="113"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="40" t="s">
         <v>22</v>
@@ -3373,17 +3302,17 @@
       </c>
       <c r="H19" s="40"/>
       <c r="I19" s="136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J19" s="113"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" s="111">
         <f>'Research data'!L15</f>
@@ -3395,17 +3324,17 @@
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J20" s="113"/>
     </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" thickBot="1">
+    <row r="21" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="162" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>123</v>
       </c>
       <c r="E21" s="140">
         <f>'Research data'!H16</f>
@@ -3413,18 +3342,18 @@
       </c>
       <c r="F21" s="40"/>
       <c r="G21" s="162" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H21" s="40"/>
       <c r="I21" s="136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" s="113"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="162" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>20</v>
@@ -3435,18 +3364,18 @@
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J22" s="113"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>20</v>
@@ -3457,18 +3386,18 @@
       </c>
       <c r="F23" s="40"/>
       <c r="G23" s="162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="113"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>20</v>
@@ -3479,21 +3408,21 @@
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J24" s="113"/>
     </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="41"/>
       <c r="C25" s="162" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="132">
         <f>'Research data'!H20</f>
@@ -3501,21 +3430,21 @@
       </c>
       <c r="F25" s="40"/>
       <c r="G25" s="162" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J25" s="113"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" s="132">
         <f>'Research data'!H21</f>
@@ -3529,13 +3458,13 @@
       </c>
       <c r="J26" s="113"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
       <c r="C27" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>134</v>
       </c>
       <c r="E27" s="132">
         <f>'Research data'!H22</f>
@@ -3543,15 +3472,15 @@
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="162" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="178" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J27" s="113"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
       <c r="C28" s="37"/>
       <c r="D28" s="114"/>
@@ -3562,7 +3491,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="113"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="13" t="s">
         <v>5</v>
@@ -3575,7 +3504,7 @@
       <c r="I29" s="68"/>
       <c r="J29" s="113"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="C30" s="40" t="s">
         <v>24</v>
@@ -3593,17 +3522,17 @@
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="128" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41"/>
       <c r="C31" s="162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="177">
         <f>'Research data'!H26</f>
@@ -3611,18 +3540,18 @@
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="162" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J31" s="113"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
       <c r="C32" s="162" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1</v>
@@ -3633,15 +3562,15 @@
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="162" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="178" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32" s="113"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
       <c r="C33" s="40" t="s">
         <v>21</v>
@@ -3658,7 +3587,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="113"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
@@ -3675,43 +3604,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3722,40 +3614,40 @@
   </sheetPr>
   <dimension ref="B2:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="46" customWidth="1"/>
     <col min="2" max="2" width="3" style="46" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="46" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="46" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="46" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="46" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="46" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="46" customWidth="1"/>
     <col min="7" max="7" width="3" style="46" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="46" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="46" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="46" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="46" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="46" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="46" customWidth="1"/>
-    <col min="16" max="16" width="8.625" style="46" customWidth="1"/>
-    <col min="17" max="17" width="2.25" style="46" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="46" customWidth="1"/>
-    <col min="19" max="19" width="2.625" style="46" customWidth="1"/>
-    <col min="20" max="20" width="22.375" style="46" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="46" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="46" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="46" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="46" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="46" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="46" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="46" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="46" customWidth="1"/>
+    <col min="17" max="17" width="2.28515625" style="46" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="46" customWidth="1"/>
+    <col min="19" max="19" width="2.5703125" style="46" customWidth="1"/>
+    <col min="20" max="20" width="22.42578125" style="46" customWidth="1"/>
     <col min="21" max="21" width="11" style="46" customWidth="1"/>
-    <col min="22" max="22" width="2.5" style="46" customWidth="1"/>
-    <col min="23" max="23" width="22.375" style="46" customWidth="1"/>
-    <col min="24" max="16384" width="10.625" style="46"/>
+    <col min="22" max="22" width="2.42578125" style="46" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="46" customWidth="1"/>
+    <col min="24" max="16384" width="10.7109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="16" thickBot="1"/>
-    <row r="3" spans="2:23">
+    <row r="2" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -3779,7 +3671,7 @@
       <c r="V3" s="48"/>
       <c r="W3" s="48"/>
     </row>
-    <row r="4" spans="2:23" s="26" customFormat="1">
+    <row r="4" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="107" t="s">
         <v>19</v>
@@ -3791,34 +3683,34 @@
       </c>
       <c r="G4" s="107"/>
       <c r="H4" s="107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="107"/>
       <c r="J4" s="107" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4" s="107"/>
       <c r="L4" s="107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M4" s="107"/>
       <c r="N4" s="107" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O4" s="107"/>
       <c r="P4" s="107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="107"/>
       <c r="R4" s="107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S4" s="107"/>
       <c r="T4" s="107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="18" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="49"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -3834,7 +3726,7 @@
       <c r="N5" s="55"/>
       <c r="T5" s="63"/>
     </row>
-    <row r="6" spans="2:23" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="49"/>
       <c r="C6" s="12" t="s">
         <v>48</v>
@@ -3857,10 +3749,10 @@
       <c r="S6" s="50"/>
       <c r="T6" s="61"/>
     </row>
-    <row r="7" spans="2:23" ht="16" thickBot="1">
+    <row r="7" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49"/>
       <c r="C7" s="127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="57"/>
       <c r="E7" s="57"/>
@@ -3887,15 +3779,15 @@
       <c r="S7" s="50"/>
       <c r="T7" s="141"/>
     </row>
-    <row r="8" spans="2:23" ht="16" thickBot="1">
+    <row r="8" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="49"/>
       <c r="C8" s="160" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="108"/>
       <c r="H8" s="131">
@@ -3918,10 +3810,10 @@
       <c r="S8" s="50"/>
       <c r="T8" s="141"/>
     </row>
-    <row r="9" spans="2:23" ht="16" thickBot="1">
+    <row r="9" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="49"/>
       <c r="C9" s="160" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
@@ -3944,13 +3836,13 @@
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
       <c r="T9" s="165" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" ht="16" thickBot="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="49"/>
       <c r="C10" s="160" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -3974,15 +3866,15 @@
       <c r="S10" s="50"/>
       <c r="T10" s="141"/>
     </row>
-    <row r="11" spans="2:23" ht="16" thickBot="1">
+    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49"/>
       <c r="C11" s="160" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
       <c r="F11" s="161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="108"/>
       <c r="H11" s="169">
@@ -4004,10 +3896,10 @@
       </c>
       <c r="S11" s="50"/>
       <c r="T11" s="165" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="49"/>
       <c r="G12" s="108"/>
       <c r="H12" s="62"/>
@@ -4024,7 +3916,7 @@
       <c r="S12" s="50"/>
       <c r="T12" s="67"/>
     </row>
-    <row r="13" spans="2:23" ht="16" thickBot="1">
+    <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>46</v>
@@ -4047,7 +3939,7 @@
       <c r="S13" s="50"/>
       <c r="T13" s="67"/>
     </row>
-    <row r="14" spans="2:23" ht="16" thickBot="1">
+    <row r="14" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49"/>
       <c r="C14" s="138" t="s">
         <v>6</v>
@@ -4075,10 +3967,10 @@
       <c r="R14" s="50"/>
       <c r="S14" s="50"/>
       <c r="T14" s="135" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:23" ht="16" thickBot="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49"/>
       <c r="C15" s="162" t="s">
         <v>23</v>
@@ -4108,15 +4000,15 @@
       <c r="S15" s="50"/>
       <c r="T15" s="52"/>
     </row>
-    <row r="16" spans="2:23" ht="16" thickBot="1">
+    <row r="16" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="49"/>
       <c r="C16" s="162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" s="110"/>
       <c r="H16" s="139">
@@ -4137,13 +4029,13 @@
       <c r="R16" s="50"/>
       <c r="S16" s="50"/>
       <c r="T16" s="135" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="16" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="49"/>
       <c r="C17" s="162" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
@@ -4165,13 +4057,13 @@
       <c r="R17" s="50"/>
       <c r="S17" s="50"/>
       <c r="T17" s="165" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="16" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="49"/>
       <c r="C18" s="162" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -4193,13 +4085,13 @@
       <c r="R18" s="50"/>
       <c r="S18" s="50"/>
       <c r="T18" s="165" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="16" thickBot="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="49"/>
       <c r="C19" s="162" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
@@ -4226,15 +4118,15 @@
       <c r="S19" s="50"/>
       <c r="T19" s="135"/>
     </row>
-    <row r="20" spans="2:20" ht="16" thickBot="1">
+    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="49"/>
       <c r="C20" s="162" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
       <c r="F20" s="161" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" s="110"/>
       <c r="H20" s="54">
@@ -4251,18 +4143,18 @@
       <c r="R20" s="50"/>
       <c r="S20" s="50"/>
       <c r="T20" s="165" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="16" thickBot="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="49"/>
       <c r="C21" s="162" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="161" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G21" s="110"/>
       <c r="H21" s="54">
@@ -4280,15 +4172,15 @@
       <c r="S21" s="50"/>
       <c r="T21" s="135"/>
     </row>
-    <row r="22" spans="2:20" ht="16" thickBot="1">
+    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
       <c r="C22" s="162" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
       <c r="F22" s="161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="110"/>
       <c r="H22" s="54">
@@ -4305,15 +4197,15 @@
       <c r="R22" s="50"/>
       <c r="S22" s="50"/>
       <c r="T22" s="165" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="49"/>
       <c r="S23" s="50"/>
       <c r="T23" s="63"/>
     </row>
-    <row r="24" spans="2:20" ht="16" thickBot="1">
+    <row r="24" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="49"/>
       <c r="C24" s="26" t="s">
         <v>5</v>
@@ -4321,13 +4213,13 @@
       <c r="S24" s="53"/>
       <c r="T24" s="66"/>
     </row>
-    <row r="25" spans="2:20" ht="16" thickBot="1">
+    <row r="25" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="49"/>
       <c r="C25" s="127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="130" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="59">
         <f>P25</f>
@@ -4340,13 +4232,13 @@
       <c r="R25" s="174"/>
       <c r="T25" s="67"/>
     </row>
-    <row r="26" spans="2:20" ht="16" thickBot="1">
+    <row r="26" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="49"/>
       <c r="C26" s="160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="164" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H26" s="59">
         <f>R26</f>
@@ -4360,13 +4252,13 @@
       <c r="S26" s="53"/>
       <c r="T26" s="67"/>
     </row>
-    <row r="27" spans="2:20" ht="16" thickBot="1">
+    <row r="27" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="49"/>
       <c r="C27" s="160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="164" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="59">
         <f>R27</f>
@@ -4377,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="16" thickBot="1">
+    <row r="28" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="49"/>
       <c r="C28" s="127" t="s">
         <v>21</v>
@@ -4387,20 +4279,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="49"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4415,22 +4302,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="69" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="69" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="69" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="69" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="69" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="74" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="74" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="69"/>
+    <col min="1" max="1" width="3.42578125" style="69" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="69" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="69" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="69" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="69" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="74" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -4441,7 +4328,7 @@
       <c r="I2" s="75"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="72"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -4454,7 +4341,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="68"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="72"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4465,7 +4352,7 @@
       <c r="I4" s="76"/>
       <c r="J4" s="68"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="77"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -4480,19 +4367,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="72"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4503,16 +4390,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="72"/>
       <c r="C7" s="78" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="124" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="68">
         <v>2012</v>
@@ -4524,13 +4411,13 @@
         <v>42278</v>
       </c>
       <c r="I7" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="72"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -4540,16 +4427,16 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="72"/>
       <c r="C9" s="78" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="133" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="133" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" s="133" t="s">
-        <v>72</v>
       </c>
       <c r="F9" s="68">
         <v>2010</v>
@@ -4561,13 +4448,13 @@
         <v>42278</v>
       </c>
       <c r="I9" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="72"/>
       <c r="C10" s="79"/>
       <c r="D10" s="68"/>
@@ -4578,16 +4465,16 @@
       <c r="I10" s="120"/>
       <c r="J10" s="119"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="72"/>
       <c r="C11" s="121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11" s="68">
         <v>2014</v>
@@ -4599,13 +4486,13 @@
         <v>42278</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="72"/>
       <c r="C12" s="79"/>
       <c r="D12" s="68"/>
@@ -4616,16 +4503,16 @@
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="72"/>
       <c r="C13" s="137" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="167" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="68">
         <v>2013</v>
@@ -4637,13 +4524,13 @@
         <v>42278</v>
       </c>
       <c r="I13" s="120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="118" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="72"/>
       <c r="C14" s="78" t="s">
         <v>27</v>
@@ -4656,26 +4543,26 @@
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="72"/>
       <c r="C15" s="168" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="72"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="72"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="72"/>
       <c r="C18" s="172"/>
       <c r="D18" s="167" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E18" s="167" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="68">
         <v>2015</v>
@@ -4688,13 +4575,13 @@
       </c>
       <c r="I18" s="68"/>
       <c r="J18" s="171" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="72"/>
       <c r="C19" s="176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -4704,10 +4591,10 @@
       <c r="I19" s="120"/>
       <c r="J19" s="68"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="72"/>
       <c r="C20" s="168" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -4718,14 +4605,9 @@
       <c r="J20" s="68"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4740,25 +4622,25 @@
       <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="80" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="80" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="80" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="80" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="80" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="80" customWidth="1"/>
     <col min="4" max="4" width="4" style="80" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="80" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="80" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="80"/>
+    <col min="5" max="5" width="13.140625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" style="80" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="80"/>
     <col min="9" max="9" width="13" style="80" customWidth="1"/>
-    <col min="10" max="13" width="10.625" style="80"/>
-    <col min="14" max="14" width="16.125" style="80" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="80"/>
-    <col min="16" max="16" width="55.75" style="80" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="80"/>
+    <col min="10" max="13" width="10.7109375" style="80"/>
+    <col min="14" max="14" width="16.140625" style="80" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="80"/>
+    <col min="16" max="16" width="55.7109375" style="80" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1"/>
-    <row r="2" spans="1:14">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="81"/>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -4773,14 +4655,14 @@
       <c r="M2" s="82"/>
       <c r="N2" s="83"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="84"/>
       <c r="B3" s="116"/>
       <c r="C3" s="90" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" s="90" t="s">
         <v>28</v>
@@ -4795,7 +4677,7 @@
       <c r="M3" s="85"/>
       <c r="N3" s="117"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="87"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -4810,7 +4692,7 @@
       <c r="M4" s="88"/>
       <c r="N4" s="86"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="87"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
@@ -4824,14 +4706,14 @@
       <c r="M5" s="88"/>
       <c r="N5" s="86"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="87"/>
       <c r="C6" s="88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="88"/>
       <c r="G6" s="88" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="88"/>
       <c r="I6" s="88"/>
@@ -4840,7 +4722,7 @@
       <c r="L6" s="88"/>
       <c r="M6" s="88"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="87"/>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
@@ -4854,7 +4736,7 @@
       <c r="L7" s="88"/>
       <c r="M7" s="88"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="87"/>
       <c r="C8" s="88"/>
       <c r="D8" s="88"/>
@@ -4868,7 +4750,7 @@
       <c r="L8" s="88"/>
       <c r="M8" s="88"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="87"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88">
@@ -4884,7 +4766,7 @@
       <c r="L9" s="88"/>
       <c r="M9" s="88"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="87"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
@@ -4898,7 +4780,7 @@
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="87"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -4906,7 +4788,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
@@ -4916,7 +4798,7 @@
       <c r="L11" s="88"/>
       <c r="M11" s="88"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="87"/>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
@@ -4930,7 +4812,7 @@
       <c r="L12" s="88"/>
       <c r="M12" s="88"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="87"/>
       <c r="C13" s="88"/>
       <c r="D13" s="88"/>
@@ -4949,7 +4831,7 @@
       <c r="L13" s="88"/>
       <c r="M13" s="88"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
@@ -4963,7 +4845,7 @@
       <c r="L14" s="88"/>
       <c r="M14" s="88"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="87"/>
       <c r="C15" s="88"/>
       <c r="D15" s="88">
@@ -4979,7 +4861,7 @@
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
@@ -4993,7 +4875,7 @@
       <c r="L16" s="88"/>
       <c r="M16" s="88"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="87"/>
       <c r="C17" s="88"/>
       <c r="D17" s="88"/>
@@ -5007,7 +4889,7 @@
       <c r="L17" s="88"/>
       <c r="M17" s="88"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
@@ -5021,7 +4903,7 @@
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
@@ -5039,7 +4921,7 @@
       <c r="L19" s="88"/>
       <c r="M19" s="88"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
@@ -5053,7 +4935,7 @@
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="87"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
@@ -5067,7 +4949,7 @@
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
@@ -5081,7 +4963,7 @@
       <c r="L22" s="88"/>
       <c r="M22" s="88"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="87"/>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
@@ -5095,7 +4977,7 @@
       <c r="L23" s="88"/>
       <c r="M23" s="88"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="87"/>
       <c r="C24" s="88"/>
       <c r="D24" s="88"/>
@@ -5109,7 +4991,7 @@
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="87"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
@@ -5123,7 +5005,7 @@
       <c r="L25" s="88"/>
       <c r="M25" s="88"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
@@ -5137,7 +5019,7 @@
       <c r="L26" s="88"/>
       <c r="M26" s="88"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="87"/>
       <c r="C27" s="88"/>
       <c r="D27" s="88"/>
@@ -5151,7 +5033,7 @@
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="87"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
@@ -5165,7 +5047,7 @@
       <c r="L28" s="88"/>
       <c r="M28" s="88"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="87"/>
       <c r="C29" s="88"/>
       <c r="D29" s="88"/>
@@ -5179,7 +5061,7 @@
       <c r="L29" s="88"/>
       <c r="M29" s="88"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="87"/>
       <c r="C30" s="88"/>
       <c r="D30" s="88"/>
@@ -5193,7 +5075,7 @@
       <c r="L30" s="88"/>
       <c r="M30" s="88"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
       <c r="D31" s="88"/>
@@ -5207,7 +5089,7 @@
       <c r="L31" s="88"/>
       <c r="M31" s="88"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
       <c r="D32" s="88"/>
@@ -5221,10 +5103,10 @@
       <c r="L32" s="88"/>
       <c r="M32" s="88"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="87"/>
       <c r="C33" s="88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" s="88">
         <v>128</v>
@@ -5233,7 +5115,7 @@
         <v>40</v>
       </c>
       <c r="F33" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="88"/>
       <c r="H33" s="88"/>
@@ -5243,7 +5125,7 @@
       <c r="L33" s="88"/>
       <c r="M33" s="88"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="87"/>
       <c r="G34" s="88"/>
       <c r="H34" s="88"/>
@@ -5253,7 +5135,7 @@
       <c r="L34" s="88"/>
       <c r="M34" s="88"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="D35" s="88"/>
@@ -5267,7 +5149,7 @@
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="87"/>
       <c r="C36" s="88"/>
       <c r="D36" s="88"/>
@@ -5281,7 +5163,7 @@
       <c r="L36" s="88"/>
       <c r="M36" s="88"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="87"/>
       <c r="C37" s="88"/>
       <c r="D37" s="88"/>
@@ -5295,7 +5177,7 @@
       <c r="L37" s="88"/>
       <c r="M37" s="88"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
       <c r="D38" s="88"/>
@@ -5307,7 +5189,7 @@
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="87"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
@@ -5321,7 +5203,7 @@
       <c r="L39" s="88"/>
       <c r="M39" s="88"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="87"/>
       <c r="C40" s="88"/>
       <c r="D40" s="88"/>
@@ -5335,7 +5217,7 @@
       <c r="L40" s="88"/>
       <c r="M40" s="88"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="87"/>
       <c r="C41" s="88"/>
       <c r="D41" s="88"/>
@@ -5349,37 +5231,37 @@
       <c r="L41" s="88"/>
       <c r="M41" s="88"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="87"/>
       <c r="C42" s="88"/>
       <c r="K42" s="88"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="87"/>
       <c r="C43" s="88"/>
       <c r="K43" s="88"/>
       <c r="L43" s="88"/>
       <c r="M43" s="88"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="87"/>
       <c r="C44" s="88"/>
       <c r="K44" s="88"/>
       <c r="L44" s="88"/>
       <c r="M44" s="88"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="87"/>
       <c r="C45" s="88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K45" s="88"/>
       <c r="L45" s="88"/>
       <c r="M45" s="88"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="E46" s="123">
@@ -5390,80 +5272,80 @@
       <c r="L46" s="88"/>
       <c r="M46" s="88"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="87"/>
       <c r="C47" s="88"/>
       <c r="E47" s="88">
         <v>0.98499999999999999</v>
       </c>
       <c r="F47" s="88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47" s="88"/>
       <c r="L47" s="88"/>
       <c r="M47" s="88"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="87"/>
       <c r="C48" s="88"/>
       <c r="K48" s="88"/>
       <c r="L48" s="88"/>
       <c r="M48" s="88"/>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="87"/>
       <c r="C49" s="88"/>
       <c r="K49" s="88"/>
       <c r="L49" s="88"/>
       <c r="M49" s="88"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="87"/>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="87"/>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="87"/>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="87"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="87"/>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="87"/>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="87"/>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="87"/>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="87"/>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="87"/>
     </row>
-    <row r="60" spans="2:17">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="87"/>
     </row>
-    <row r="61" spans="2:17">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="87"/>
     </row>
-    <row r="62" spans="2:17" ht="16" thickBot="1">
+    <row r="62" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="87"/>
       <c r="C62" s="88"/>
       <c r="K62" s="88"/>
       <c r="L62" s="88"/>
       <c r="M62" s="88"/>
     </row>
-    <row r="63" spans="2:17">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="87"/>
       <c r="C63" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D63" s="88"/>
       <c r="J63" s="143"/>
@@ -5475,13 +5357,13 @@
       <c r="P63" s="144"/>
       <c r="Q63" s="145"/>
     </row>
-    <row r="64" spans="2:17" ht="18">
+    <row r="64" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="B64" s="87"/>
       <c r="C64" s="88"/>
       <c r="D64" s="88"/>
       <c r="J64" s="146"/>
       <c r="K64" s="147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L64" s="147" t="s">
         <v>8</v>
@@ -5493,14 +5375,14 @@
         <v>7</v>
       </c>
       <c r="O64" s="147" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P64" s="147" t="s">
         <v>0</v>
       </c>
       <c r="Q64" s="148"/>
     </row>
-    <row r="65" spans="2:17" ht="19" thickBot="1">
+    <row r="65" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="87"/>
       <c r="C65" s="88"/>
       <c r="D65" s="88"/>
@@ -5513,7 +5395,7 @@
       <c r="P65" s="150"/>
       <c r="Q65" s="151"/>
     </row>
-    <row r="66" spans="2:17" ht="19" thickBot="1">
+    <row r="66" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="87"/>
       <c r="C66" s="88"/>
       <c r="D66" s="88"/>
@@ -5522,30 +5404,30 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="F66" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J66" s="149"/>
       <c r="K66" s="142" t="s">
+        <v>81</v>
+      </c>
+      <c r="L66" s="142" t="s">
         <v>82</v>
-      </c>
-      <c r="L66" s="142" t="s">
-        <v>83</v>
       </c>
       <c r="M66" s="152">
         <v>1.0980000000000001</v>
       </c>
       <c r="N66" s="142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O66" s="153">
         <v>42221</v>
       </c>
       <c r="P66" s="154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q66" s="151"/>
     </row>
-    <row r="67" spans="2:17" ht="16" thickBot="1">
+    <row r="67" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="87"/>
       <c r="C67" s="88"/>
       <c r="D67" s="88"/>
@@ -5558,23 +5440,23 @@
       <c r="P67" s="156"/>
       <c r="Q67" s="157"/>
     </row>
-    <row r="68" spans="2:17">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="87"/>
       <c r="C68" s="88"/>
       <c r="K68" s="88"/>
       <c r="L68" s="88"/>
       <c r="M68" s="88"/>
     </row>
-    <row r="69" spans="2:17">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" s="87"/>
       <c r="C69" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K69" s="88"/>
       <c r="L69" s="88"/>
       <c r="M69" s="88"/>
     </row>
-    <row r="70" spans="2:17">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="87"/>
       <c r="C70" s="88"/>
       <c r="D70" s="80">
@@ -5584,7 +5466,7 @@
       <c r="L70" s="88"/>
       <c r="M70" s="88"/>
     </row>
-    <row r="71" spans="2:17">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="87"/>
       <c r="C71" s="88"/>
       <c r="E71" s="80">
@@ -5592,49 +5474,49 @@
         <v>34492500</v>
       </c>
       <c r="F71" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G71" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K71" s="88"/>
       <c r="L71" s="88"/>
       <c r="M71" s="88"/>
     </row>
-    <row r="72" spans="2:17">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="87"/>
       <c r="C72" s="88"/>
       <c r="E72" s="80">
         <v>1.0833999999999999</v>
       </c>
       <c r="F72" s="80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K72" s="88"/>
       <c r="L72" s="88"/>
       <c r="M72" s="88"/>
     </row>
-    <row r="73" spans="2:17">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="87"/>
       <c r="C73" s="88"/>
       <c r="K73" s="88"/>
       <c r="L73" s="88"/>
       <c r="M73" s="88"/>
     </row>
-    <row r="74" spans="2:17">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="87"/>
       <c r="C74" s="88"/>
       <c r="E74" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G74" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K74" s="88"/>
       <c r="L74" s="88"/>
       <c r="M74" s="88"/>
     </row>
-    <row r="75" spans="2:17">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="87"/>
       <c r="C75" s="88"/>
       <c r="E75" s="80">
@@ -5642,13 +5524,13 @@
         <v>12</v>
       </c>
       <c r="F75" s="80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K75" s="88"/>
       <c r="L75" s="88"/>
       <c r="M75" s="88"/>
     </row>
-    <row r="76" spans="2:17">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="87"/>
       <c r="C76" s="88"/>
       <c r="E76" s="80">
@@ -5656,16 +5538,16 @@
         <v>9996000000</v>
       </c>
       <c r="F76" s="80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K76" s="88"/>
       <c r="L76" s="88"/>
       <c r="M76" s="88"/>
     </row>
-    <row r="77" spans="2:17">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="87"/>
       <c r="C77" s="88"/>
       <c r="E77" s="80">
@@ -5673,16 +5555,16 @@
         <v>380027928000</v>
       </c>
       <c r="F77" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G77" s="80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K77" s="88"/>
       <c r="L77" s="88"/>
       <c r="M77" s="88"/>
     </row>
-    <row r="78" spans="2:17">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="87"/>
       <c r="C78" s="88"/>
       <c r="E78" s="80">
@@ -5690,13 +5572,13 @@
         <v>380.02792799999997</v>
       </c>
       <c r="F78" s="80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K78" s="88"/>
       <c r="L78" s="88"/>
       <c r="M78" s="88"/>
     </row>
-    <row r="79" spans="2:17">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="87"/>
       <c r="C79" s="88"/>
       <c r="E79" s="80">
@@ -5704,39 +5586,39 @@
         <v>1.041172405479452</v>
       </c>
       <c r="F79" s="80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K79" s="88"/>
       <c r="L79" s="88"/>
       <c r="M79" s="88"/>
     </row>
-    <row r="80" spans="2:17">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="87"/>
       <c r="C80" s="88"/>
       <c r="K80" s="88"/>
       <c r="L80" s="88"/>
       <c r="M80" s="88"/>
     </row>
-    <row r="81" spans="2:13">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B81" s="87"/>
       <c r="C81" s="88"/>
       <c r="E81" s="80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K81" s="88"/>
       <c r="L81" s="88"/>
       <c r="M81" s="88"/>
     </row>
-    <row r="82" spans="2:13">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B82" s="87"/>
       <c r="K82" s="88"/>
       <c r="L82" s="88"/>
       <c r="M82" s="88"/>
     </row>
-    <row r="83" spans="2:13">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B83" s="87"/>
       <c r="C83" s="88"/>
       <c r="E83" s="80">
@@ -5744,16 +5626,16 @@
         <v>33148088.606239613</v>
       </c>
       <c r="F83" s="80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G83" s="80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K83" s="88"/>
       <c r="L83" s="88"/>
       <c r="M83" s="88"/>
     </row>
-    <row r="84" spans="2:13">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B84" s="87"/>
       <c r="C84" s="88"/>
       <c r="E84" s="158">
@@ -5761,13 +5643,13 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="F84" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K84" s="88"/>
       <c r="L84" s="88"/>
       <c r="M84" s="88"/>
     </row>
-    <row r="85" spans="2:13">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B85" s="87"/>
       <c r="C85" s="88"/>
       <c r="E85" s="80">
@@ -5775,37 +5657,37 @@
         <v>30189516.034826603</v>
       </c>
       <c r="F85" s="80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G85" s="84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K85" s="88"/>
       <c r="L85" s="88"/>
       <c r="M85" s="88"/>
     </row>
-    <row r="86" spans="2:13">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B86" s="87"/>
       <c r="K86" s="88"/>
       <c r="L86" s="88"/>
       <c r="M86" s="88"/>
     </row>
-    <row r="87" spans="2:13">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B87" s="87"/>
       <c r="E87" s="80">
         <v>0</v>
       </c>
       <c r="F87" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="G87" s="80" t="s">
         <v>148</v>
-      </c>
-      <c r="G87" s="80" t="s">
-        <v>149</v>
       </c>
       <c r="K87" s="88"/>
       <c r="L87" s="88"/>
       <c r="M87" s="88"/>
     </row>
-    <row r="88" spans="2:13">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B88" s="87"/>
       <c r="E88" s="80">
         <f>E87*1000000/E84</f>
@@ -5815,29 +5697,29 @@
         <v>20</v>
       </c>
       <c r="G88" s="84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B89" s="87"/>
     </row>
-    <row r="90" spans="2:13">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B90" s="87"/>
     </row>
-    <row r="91" spans="2:13">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B91" s="87"/>
       <c r="C91" s="88"/>
       <c r="E91" s="80">
         <v>0.12364799999999999</v>
       </c>
       <c r="F91" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G91" s="80" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B92" s="87"/>
       <c r="C92" s="88"/>
       <c r="D92" s="88"/>
@@ -5846,10 +5728,10 @@
         <v>1.2364799999999999E-4</v>
       </c>
       <c r="F92" s="80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B93" s="87"/>
       <c r="C93" s="88"/>
       <c r="E93" s="158">
@@ -5857,24 +5739,24 @@
         <v>1.0980000000000001</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B94" s="87"/>
       <c r="E94" s="80">
         <f>E92/E93</f>
         <v>1.1261202185792348E-4</v>
       </c>
       <c r="F94" s="80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B95" s="87"/>
       <c r="C95" s="88"/>
     </row>
-    <row r="96" spans="2:13">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B96" s="87"/>
       <c r="C96" s="88"/>
       <c r="E96" s="80">
@@ -5882,13 +5764,13 @@
         <v>380027928000</v>
       </c>
       <c r="F96" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G96" s="80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="87"/>
       <c r="C97" s="88"/>
       <c r="E97" s="80">
@@ -5896,283 +5778,278 @@
         <v>43382183.561643839</v>
       </c>
       <c r="F97" s="80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G97" s="80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="87"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="87"/>
       <c r="E99" s="80">
         <f>E97*E94</f>
         <v>4885.3554034882845</v>
       </c>
       <c r="F99" s="80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G99" s="84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="87"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="87"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="87"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="87"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="87"/>
       <c r="E104" s="80">
         <f>E77</f>
         <v>380027928000</v>
       </c>
       <c r="F104" s="80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G104" s="80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="87"/>
       <c r="E105" s="80">
         <f>E104/365.25/24/3600</f>
         <v>12042.358354247472</v>
       </c>
       <c r="F105" s="80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G105" s="80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="87"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="87"/>
       <c r="E107" s="80">
         <f>E47</f>
         <v>0.98499999999999999</v>
       </c>
       <c r="G107" s="80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="87"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="87"/>
       <c r="E109" s="80">
         <f>E105/E107</f>
         <v>12225.744522078652</v>
       </c>
       <c r="F109" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="G109" s="84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7">
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="87"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="87"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="87"/>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="87"/>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B114" s="87"/>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B115" s="87"/>
       <c r="C115" s="80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E115" s="80">
         <v>35</v>
       </c>
       <c r="F115" s="80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G115" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="87"/>
       <c r="E116" s="80">
         <f>E115*0.01</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="F116" s="80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="87"/>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="87"/>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" s="87"/>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="87"/>
       <c r="G120" s="80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="87"/>
       <c r="E121" s="80">
         <v>3</v>
       </c>
       <c r="F121" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G121" s="84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H121" s="170"/>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B122" s="87"/>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B123" s="87"/>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" s="87"/>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="87"/>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B126" s="87"/>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B127" s="87"/>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="87"/>
       <c r="E128" s="171">
         <v>8700</v>
       </c>
       <c r="F128" s="171"/>
       <c r="G128" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I128" s="80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B129" s="87"/>
     </row>
-    <row r="130" spans="2:12">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B130" s="87"/>
     </row>
-    <row r="131" spans="2:12">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B131" s="87"/>
     </row>
-    <row r="132" spans="2:12">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B132" s="87"/>
     </row>
-    <row r="133" spans="2:12">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B133" s="87"/>
     </row>
-    <row r="134" spans="2:12">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B134" s="87"/>
     </row>
-    <row r="135" spans="2:12">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B135" s="87"/>
     </row>
-    <row r="136" spans="2:12">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B136" s="87"/>
     </row>
-    <row r="137" spans="2:12">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B137" s="87"/>
     </row>
-    <row r="138" spans="2:12">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B138" s="87"/>
     </row>
-    <row r="139" spans="2:12">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B139" s="87"/>
     </row>
-    <row r="140" spans="2:12">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B140" s="87"/>
     </row>
-    <row r="141" spans="2:12">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B141" s="87"/>
       <c r="J141" s="171"/>
       <c r="K141" s="171"/>
       <c r="L141" s="171"/>
     </row>
-    <row r="142" spans="2:12">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B142" s="87"/>
     </row>
-    <row r="143" spans="2:12">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B143" s="87"/>
     </row>
-    <row r="144" spans="2:12">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B144" s="87"/>
     </row>
-    <row r="145" spans="2:2">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B145" s="87"/>
     </row>
-    <row r="146" spans="2:2">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B146" s="87"/>
     </row>
-    <row r="147" spans="2:2">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B147" s="87"/>
     </row>
-    <row r="148" spans="2:2">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B148" s="87"/>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B149" s="87"/>
     </row>
-    <row r="150" spans="2:2">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B150" s="87"/>
     </row>
-    <row r="151" spans="2:2">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B151" s="87"/>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B152" s="87"/>
     </row>
-    <row r="153" spans="2:2">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B153" s="87"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_regasification_lng.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCFD250-2CE3-6E47-9969-2072AC92E6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="173">
   <si>
     <t>Source</t>
   </si>
@@ -603,18 +610,21 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -858,6 +868,12 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1515,7 +1531,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1804,6 +1820,7 @@
     <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="357">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2170,6 +2187,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2191,7 +2211,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2229,7 +2255,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2267,7 +2299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2305,7 +2343,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2343,7 +2387,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2381,7 +2431,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2841,8 +2897,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2851,7 +2907,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
@@ -2859,24 +2915,24 @@
     <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2885,7 +2941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>45</v>
@@ -2894,7 +2950,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2903,29 +2959,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="91" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="92"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="93" t="s">
         <v>31</v>
@@ -2934,33 +2990,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="93"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="93"/>
       <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="93"/>
       <c r="C14" s="94" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="93"/>
       <c r="C15" s="94"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="93" t="s">
         <v>36</v>
@@ -2969,49 +3025,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="93"/>
       <c r="C17" s="98" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="93"/>
       <c r="C18" s="99" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="93"/>
       <c r="C19" s="100" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="101"/>
       <c r="C20" s="102" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="101"/>
       <c r="C21" s="103" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="101"/>
       <c r="C22" s="104" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="101"/>
       <c r="C23" s="105" t="s">
         <v>44</v>
@@ -3024,17 +3080,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="36" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" style="36" customWidth="1"/>
@@ -3049,10 +3105,10 @@
     <col min="11" max="16384" width="10.7109375" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="D1" s="37"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="B2" s="179" t="s">
         <v>171</v>
       </c>
@@ -3062,7 +3118,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="B3" s="182"/>
       <c r="C3" s="183"/>
       <c r="D3" s="183"/>
@@ -3070,7 +3126,7 @@
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="B4" s="182"/>
       <c r="C4" s="183"/>
       <c r="D4" s="183"/>
@@ -3078,7 +3134,7 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="31" customHeight="1">
       <c r="B5" s="185"/>
       <c r="C5" s="186"/>
       <c r="D5" s="186"/>
@@ -3086,17 +3142,17 @@
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17" thickBot="1">
       <c r="D7" s="37"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="B8" s="38"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3107,7 +3163,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="26" customFormat="1">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3128,7 +3184,7 @@
       </c>
       <c r="J9" s="112"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="26" customFormat="1">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3139,7 +3195,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>48</v>
@@ -3152,7 +3208,7 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="126" t="s">
         <v>63</v>
@@ -3174,7 +3230,7 @@
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17" thickBot="1">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="162" t="s">
@@ -3196,7 +3252,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="162" t="s">
@@ -3218,7 +3274,7 @@
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17" thickBot="1">
       <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="162" t="s">
@@ -3236,7 +3292,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="26"/>
     </row>
-    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17" thickBot="1">
       <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="162" t="s">
@@ -3258,7 +3314,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="26"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="41"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -3270,7 +3326,7 @@
       <c r="J17" s="113"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="41"/>
       <c r="C18" s="13" t="s">
         <v>47</v>
@@ -3284,7 +3340,7 @@
       <c r="J18" s="113"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="40" t="s">
         <v>22</v>
@@ -3306,7 +3362,7 @@
       </c>
       <c r="J19" s="113"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="40" t="s">
         <v>23</v>
@@ -3328,7 +3384,7 @@
       </c>
       <c r="J20" s="113"/>
     </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" ht="15" customHeight="1" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="162" t="s">
         <v>121</v>
@@ -3350,7 +3406,7 @@
       </c>
       <c r="J21" s="113"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="162" t="s">
         <v>126</v>
@@ -3372,7 +3428,7 @@
       </c>
       <c r="J22" s="113"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="162" t="s">
         <v>127</v>
@@ -3394,7 +3450,7 @@
       </c>
       <c r="J23" s="113"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="41"/>
       <c r="C24" s="162" t="s">
         <v>128</v>
@@ -3416,7 +3472,7 @@
       </c>
       <c r="J24" s="113"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="162" t="s">
         <v>130</v>
@@ -3438,7 +3494,7 @@
       </c>
       <c r="J25" s="113"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="162" t="s">
         <v>131</v>
@@ -3458,7 +3514,7 @@
       </c>
       <c r="J26" s="113"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="41"/>
       <c r="C27" s="162" t="s">
         <v>132</v>
@@ -3467,20 +3523,19 @@
         <v>133</v>
       </c>
       <c r="E27" s="132">
-        <f>'Research data'!H22</f>
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="40"/>
       <c r="G27" s="162" t="s">
         <v>139</v>
       </c>
       <c r="H27" s="40"/>
-      <c r="I27" s="178" t="s">
-        <v>166</v>
+      <c r="I27" s="188" t="s">
+        <v>172</v>
       </c>
       <c r="J27" s="113"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11">
       <c r="B28" s="41"/>
       <c r="C28" s="37"/>
       <c r="D28" s="114"/>
@@ -3491,7 +3546,7 @@
       <c r="I28" s="68"/>
       <c r="J28" s="113"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="41"/>
       <c r="C29" s="13" t="s">
         <v>5</v>
@@ -3504,7 +3559,7 @@
       <c r="I29" s="68"/>
       <c r="J29" s="113"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="41"/>
       <c r="C30" s="40" t="s">
         <v>24</v>
@@ -3526,7 +3581,7 @@
       </c>
       <c r="J30" s="113"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="41"/>
       <c r="C31" s="162" t="s">
         <v>140</v>
@@ -3548,7 +3603,7 @@
       </c>
       <c r="J31" s="113"/>
     </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="41"/>
       <c r="C32" s="162" t="s">
         <v>141</v>
@@ -3570,7 +3625,7 @@
       </c>
       <c r="J32" s="113"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="41"/>
       <c r="C33" s="40" t="s">
         <v>21</v>
@@ -3587,7 +3642,7 @@
       <c r="I33" s="35"/>
       <c r="J33" s="113"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="43"/>
       <c r="C34" s="44"/>
       <c r="D34" s="44"/>
@@ -3608,8 +3663,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:W30"/>
@@ -3618,7 +3673,7 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="46" customWidth="1"/>
     <col min="2" max="2" width="3" style="46" customWidth="1"/>
@@ -3646,8 +3701,8 @@
     <col min="24" max="16384" width="10.7109375" style="46"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" ht="17" thickBot="1"/>
+    <row r="3" spans="2:23">
       <c r="B3" s="47"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -3671,7 +3726,7 @@
       <c r="V3" s="48"/>
       <c r="W3" s="48"/>
     </row>
-    <row r="4" spans="2:23" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" s="26" customFormat="1">
       <c r="B4" s="25"/>
       <c r="C4" s="107" t="s">
         <v>19</v>
@@ -3710,7 +3765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" ht="18" customHeight="1">
       <c r="B5" s="49"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -3726,7 +3781,7 @@
       <c r="N5" s="55"/>
       <c r="T5" s="63"/>
     </row>
-    <row r="6" spans="2:23" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:23" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="49"/>
       <c r="C6" s="12" t="s">
         <v>48</v>
@@ -3749,7 +3804,7 @@
       <c r="S6" s="50"/>
       <c r="T6" s="61"/>
     </row>
-    <row r="7" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:23" ht="17" thickBot="1">
       <c r="B7" s="49"/>
       <c r="C7" s="127" t="s">
         <v>63</v>
@@ -3779,7 +3834,7 @@
       <c r="S7" s="50"/>
       <c r="T7" s="141"/>
     </row>
-    <row r="8" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:23" ht="17" thickBot="1">
       <c r="B8" s="49"/>
       <c r="C8" s="160" t="s">
         <v>120</v>
@@ -3810,7 +3865,7 @@
       <c r="S8" s="50"/>
       <c r="T8" s="141"/>
     </row>
-    <row r="9" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:23" ht="17" thickBot="1">
       <c r="B9" s="49"/>
       <c r="C9" s="160" t="s">
         <v>124</v>
@@ -3839,7 +3894,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:23" ht="17" thickBot="1">
       <c r="B10" s="49"/>
       <c r="C10" s="160" t="s">
         <v>125</v>
@@ -3866,7 +3921,7 @@
       <c r="S10" s="50"/>
       <c r="T10" s="141"/>
     </row>
-    <row r="11" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:23" ht="17" thickBot="1">
       <c r="B11" s="49"/>
       <c r="C11" s="160" t="s">
         <v>144</v>
@@ -3899,7 +3954,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23">
       <c r="B12" s="49"/>
       <c r="G12" s="108"/>
       <c r="H12" s="62"/>
@@ -3916,7 +3971,7 @@
       <c r="S12" s="50"/>
       <c r="T12" s="67"/>
     </row>
-    <row r="13" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:23" ht="17" thickBot="1">
       <c r="B13" s="49"/>
       <c r="C13" s="12" t="s">
         <v>46</v>
@@ -3939,7 +3994,7 @@
       <c r="S13" s="50"/>
       <c r="T13" s="67"/>
     </row>
-    <row r="14" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:23" ht="17" thickBot="1">
       <c r="B14" s="49"/>
       <c r="C14" s="138" t="s">
         <v>6</v>
@@ -3970,7 +4025,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:23" ht="17" thickBot="1">
       <c r="B15" s="49"/>
       <c r="C15" s="162" t="s">
         <v>23</v>
@@ -4000,7 +4055,7 @@
       <c r="S15" s="50"/>
       <c r="T15" s="52"/>
     </row>
-    <row r="16" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="17" thickBot="1">
       <c r="B16" s="49"/>
       <c r="C16" s="162" t="s">
         <v>129</v>
@@ -4032,7 +4087,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" ht="17" thickBot="1">
       <c r="B17" s="49"/>
       <c r="C17" s="162" t="s">
         <v>126</v>
@@ -4060,7 +4115,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" ht="17" thickBot="1">
       <c r="B18" s="49"/>
       <c r="C18" s="162" t="s">
         <v>127</v>
@@ -4088,7 +4143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" ht="17" thickBot="1">
       <c r="B19" s="49"/>
       <c r="C19" s="162" t="s">
         <v>128</v>
@@ -4118,7 +4173,7 @@
       <c r="S19" s="50"/>
       <c r="T19" s="135"/>
     </row>
-    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" ht="17" thickBot="1">
       <c r="B20" s="49"/>
       <c r="C20" s="162" t="s">
         <v>130</v>
@@ -4146,7 +4201,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" ht="17" thickBot="1">
       <c r="B21" s="49"/>
       <c r="C21" s="162" t="s">
         <v>131</v>
@@ -4172,7 +4227,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="135"/>
     </row>
-    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" ht="17" thickBot="1">
       <c r="B22" s="49"/>
       <c r="C22" s="162" t="s">
         <v>132</v>
@@ -4200,12 +4255,12 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="B23" s="49"/>
       <c r="S23" s="50"/>
       <c r="T23" s="63"/>
     </row>
-    <row r="24" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="17" thickBot="1">
       <c r="B24" s="49"/>
       <c r="C24" s="26" t="s">
         <v>5</v>
@@ -4213,7 +4268,7 @@
       <c r="S24" s="53"/>
       <c r="T24" s="66"/>
     </row>
-    <row r="25" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" ht="17" thickBot="1">
       <c r="B25" s="49"/>
       <c r="C25" s="127" t="s">
         <v>66</v>
@@ -4232,7 +4287,7 @@
       <c r="R25" s="174"/>
       <c r="T25" s="67"/>
     </row>
-    <row r="26" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" ht="17" thickBot="1">
       <c r="B26" s="49"/>
       <c r="C26" s="160" t="s">
         <v>140</v>
@@ -4252,7 +4307,7 @@
       <c r="S26" s="53"/>
       <c r="T26" s="67"/>
     </row>
-    <row r="27" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" ht="17" thickBot="1">
       <c r="B27" s="49"/>
       <c r="C27" s="160" t="s">
         <v>141</v>
@@ -4269,7 +4324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" ht="17" thickBot="1">
       <c r="B28" s="49"/>
       <c r="C28" s="127" t="s">
         <v>21</v>
@@ -4279,10 +4334,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20">
       <c r="B29" s="49"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20">
       <c r="B30" s="49"/>
     </row>
   </sheetData>
@@ -4292,8 +4347,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J20"/>
@@ -4302,7 +4357,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="69" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" style="69" customWidth="1"/>
@@ -4316,8 +4371,8 @@
     <col min="11" max="16384" width="33.140625" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="70"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
@@ -4328,7 +4383,7 @@
       <c r="I2" s="75"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="72"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -4341,7 +4396,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="68"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="72"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4352,7 +4407,7 @@
       <c r="I4" s="76"/>
       <c r="J4" s="68"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="77"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -4379,7 +4434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="72"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -4390,7 +4445,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="72"/>
       <c r="C7" s="78" t="s">
         <v>3</v>
@@ -4417,7 +4472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="72"/>
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
@@ -4427,7 +4482,7 @@
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="72"/>
       <c r="C9" s="78" t="s">
         <v>6</v>
@@ -4454,7 +4509,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="72"/>
       <c r="C10" s="79"/>
       <c r="D10" s="68"/>
@@ -4465,7 +4520,7 @@
       <c r="I10" s="120"/>
       <c r="J10" s="119"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="72"/>
       <c r="C11" s="121" t="s">
         <v>57</v>
@@ -4492,7 +4547,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="72"/>
       <c r="C12" s="79"/>
       <c r="D12" s="68"/>
@@ -4503,7 +4558,7 @@
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="72"/>
       <c r="C13" s="137" t="s">
         <v>109</v>
@@ -4530,7 +4585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="72"/>
       <c r="C14" s="78" t="s">
         <v>27</v>
@@ -4543,19 +4598,19 @@
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="72"/>
       <c r="C15" s="168" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="72"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="72"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="72"/>
       <c r="C18" s="172"/>
       <c r="D18" s="167" t="s">
@@ -4578,7 +4633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="72"/>
       <c r="C19" s="176" t="s">
         <v>140</v>
@@ -4591,7 +4646,7 @@
       <c r="I19" s="120"/>
       <c r="J19" s="68"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="72"/>
       <c r="C20" s="168" t="s">
         <v>141</v>
@@ -4612,8 +4667,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:Q153"/>
@@ -4622,7 +4677,7 @@
       <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="80" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="80" customWidth="1"/>
@@ -4639,8 +4694,8 @@
     <col min="17" max="16384" width="10.7109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" thickBot="1"/>
+    <row r="2" spans="1:14">
       <c r="B2" s="81"/>
       <c r="C2" s="82"/>
       <c r="D2" s="82"/>
@@ -4655,7 +4710,7 @@
       <c r="M2" s="82"/>
       <c r="N2" s="83"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="84"/>
       <c r="B3" s="116"/>
       <c r="C3" s="90" t="s">
@@ -4677,7 +4732,7 @@
       <c r="M3" s="85"/>
       <c r="N3" s="117"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="B4" s="87"/>
       <c r="C4" s="88"/>
       <c r="D4" s="88"/>
@@ -4692,7 +4747,7 @@
       <c r="M4" s="88"/>
       <c r="N4" s="86"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="B5" s="87"/>
       <c r="D5" s="88"/>
       <c r="E5" s="88"/>
@@ -4706,7 +4761,7 @@
       <c r="M5" s="88"/>
       <c r="N5" s="86"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="B6" s="87"/>
       <c r="C6" s="88" t="s">
         <v>97</v>
@@ -4722,7 +4777,7 @@
       <c r="L6" s="88"/>
       <c r="M6" s="88"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="B7" s="87"/>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
@@ -4736,7 +4791,7 @@
       <c r="L7" s="88"/>
       <c r="M7" s="88"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="B8" s="87"/>
       <c r="C8" s="88"/>
       <c r="D8" s="88"/>
@@ -4750,7 +4805,7 @@
       <c r="L8" s="88"/>
       <c r="M8" s="88"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="B9" s="87"/>
       <c r="C9" s="88"/>
       <c r="D9" s="88">
@@ -4766,7 +4821,7 @@
       <c r="L9" s="88"/>
       <c r="M9" s="88"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="B10" s="87"/>
       <c r="C10" s="88"/>
       <c r="D10" s="88"/>
@@ -4780,7 +4835,7 @@
       <c r="L10" s="88"/>
       <c r="M10" s="88"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="B11" s="87"/>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -4798,7 +4853,7 @@
       <c r="L11" s="88"/>
       <c r="M11" s="88"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="B12" s="87"/>
       <c r="C12" s="88"/>
       <c r="D12" s="88"/>
@@ -4812,7 +4867,7 @@
       <c r="L12" s="88"/>
       <c r="M12" s="88"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="B13" s="87"/>
       <c r="C13" s="88"/>
       <c r="D13" s="88"/>
@@ -4831,7 +4886,7 @@
       <c r="L13" s="88"/>
       <c r="M13" s="88"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
@@ -4845,7 +4900,7 @@
       <c r="L14" s="88"/>
       <c r="M14" s="88"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="B15" s="87"/>
       <c r="C15" s="88"/>
       <c r="D15" s="88">
@@ -4861,7 +4916,7 @@
       <c r="L15" s="88"/>
       <c r="M15" s="88"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="D16" s="88"/>
@@ -4875,7 +4930,7 @@
       <c r="L16" s="88"/>
       <c r="M16" s="88"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17" s="87"/>
       <c r="C17" s="88"/>
       <c r="D17" s="88"/>
@@ -4889,7 +4944,7 @@
       <c r="L17" s="88"/>
       <c r="M17" s="88"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
@@ -4903,7 +4958,7 @@
       <c r="L18" s="88"/>
       <c r="M18" s="88"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="D19" s="88"/>
@@ -4921,7 +4976,7 @@
       <c r="L19" s="88"/>
       <c r="M19" s="88"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20" s="87"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
@@ -4935,7 +4990,7 @@
       <c r="L20" s="88"/>
       <c r="M20" s="88"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21" s="87"/>
       <c r="C21" s="88"/>
       <c r="D21" s="88"/>
@@ -4949,7 +5004,7 @@
       <c r="L21" s="88"/>
       <c r="M21" s="88"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13">
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
@@ -4963,7 +5018,7 @@
       <c r="L22" s="88"/>
       <c r="M22" s="88"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23" s="87"/>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
@@ -4977,7 +5032,7 @@
       <c r="L23" s="88"/>
       <c r="M23" s="88"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13">
       <c r="B24" s="87"/>
       <c r="C24" s="88"/>
       <c r="D24" s="88"/>
@@ -4991,7 +5046,7 @@
       <c r="L24" s="88"/>
       <c r="M24" s="88"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" s="87"/>
       <c r="C25" s="88"/>
       <c r="D25" s="88"/>
@@ -5005,7 +5060,7 @@
       <c r="L25" s="88"/>
       <c r="M25" s="88"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
@@ -5019,7 +5074,7 @@
       <c r="L26" s="88"/>
       <c r="M26" s="88"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13">
       <c r="B27" s="87"/>
       <c r="C27" s="88"/>
       <c r="D27" s="88"/>
@@ -5033,7 +5088,7 @@
       <c r="L27" s="88"/>
       <c r="M27" s="88"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13">
       <c r="B28" s="87"/>
       <c r="C28" s="88"/>
       <c r="D28" s="88"/>
@@ -5047,7 +5102,7 @@
       <c r="L28" s="88"/>
       <c r="M28" s="88"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13">
       <c r="B29" s="87"/>
       <c r="C29" s="88"/>
       <c r="D29" s="88"/>
@@ -5061,7 +5116,7 @@
       <c r="L29" s="88"/>
       <c r="M29" s="88"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13">
       <c r="B30" s="87"/>
       <c r="C30" s="88"/>
       <c r="D30" s="88"/>
@@ -5075,7 +5130,7 @@
       <c r="L30" s="88"/>
       <c r="M30" s="88"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13">
       <c r="B31" s="87"/>
       <c r="C31" s="88"/>
       <c r="D31" s="88"/>
@@ -5089,7 +5144,7 @@
       <c r="L31" s="88"/>
       <c r="M31" s="88"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13">
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
       <c r="D32" s="88"/>
@@ -5103,7 +5158,7 @@
       <c r="L32" s="88"/>
       <c r="M32" s="88"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13">
       <c r="B33" s="87"/>
       <c r="C33" s="88" t="s">
         <v>55</v>
@@ -5125,7 +5180,7 @@
       <c r="L33" s="88"/>
       <c r="M33" s="88"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13">
       <c r="B34" s="87"/>
       <c r="G34" s="88"/>
       <c r="H34" s="88"/>
@@ -5135,7 +5190,7 @@
       <c r="L34" s="88"/>
       <c r="M34" s="88"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13">
       <c r="B35" s="87"/>
       <c r="C35" s="88"/>
       <c r="D35" s="88"/>
@@ -5149,7 +5204,7 @@
       <c r="L35" s="88"/>
       <c r="M35" s="88"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13">
       <c r="B36" s="87"/>
       <c r="C36" s="88"/>
       <c r="D36" s="88"/>
@@ -5163,7 +5218,7 @@
       <c r="L36" s="88"/>
       <c r="M36" s="88"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13">
       <c r="B37" s="87"/>
       <c r="C37" s="88"/>
       <c r="D37" s="88"/>
@@ -5177,7 +5232,7 @@
       <c r="L37" s="88"/>
       <c r="M37" s="88"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
       <c r="D38" s="88"/>
@@ -5189,7 +5244,7 @@
       <c r="L38" s="88"/>
       <c r="M38" s="88"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13">
       <c r="B39" s="87"/>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
@@ -5203,7 +5258,7 @@
       <c r="L39" s="88"/>
       <c r="M39" s="88"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13">
       <c r="B40" s="87"/>
       <c r="C40" s="88"/>
       <c r="D40" s="88"/>
@@ -5217,7 +5272,7 @@
       <c r="L40" s="88"/>
       <c r="M40" s="88"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13">
       <c r="B41" s="87"/>
       <c r="C41" s="88"/>
       <c r="D41" s="88"/>
@@ -5231,28 +5286,28 @@
       <c r="L41" s="88"/>
       <c r="M41" s="88"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13">
       <c r="B42" s="87"/>
       <c r="C42" s="88"/>
       <c r="K42" s="88"/>
       <c r="L42" s="88"/>
       <c r="M42" s="88"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13">
       <c r="B43" s="87"/>
       <c r="C43" s="88"/>
       <c r="K43" s="88"/>
       <c r="L43" s="88"/>
       <c r="M43" s="88"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="B44" s="87"/>
       <c r="C44" s="88"/>
       <c r="K44" s="88"/>
       <c r="L44" s="88"/>
       <c r="M44" s="88"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="B45" s="87"/>
       <c r="C45" s="88" t="s">
         <v>105</v>
@@ -5261,7 +5316,7 @@
       <c r="L45" s="88"/>
       <c r="M45" s="88"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="E46" s="123">
@@ -5272,7 +5327,7 @@
       <c r="L46" s="88"/>
       <c r="M46" s="88"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="B47" s="87"/>
       <c r="C47" s="88"/>
       <c r="E47" s="88">
@@ -5285,64 +5340,64 @@
       <c r="L47" s="88"/>
       <c r="M47" s="88"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="B48" s="87"/>
       <c r="C48" s="88"/>
       <c r="K48" s="88"/>
       <c r="L48" s="88"/>
       <c r="M48" s="88"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17">
       <c r="B49" s="87"/>
       <c r="C49" s="88"/>
       <c r="K49" s="88"/>
       <c r="L49" s="88"/>
       <c r="M49" s="88"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17">
       <c r="B50" s="87"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17">
       <c r="B51" s="87"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17">
       <c r="B52" s="87"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17">
       <c r="B53" s="87"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17">
       <c r="B54" s="87"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17">
       <c r="B55" s="87"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17">
       <c r="B56" s="87"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:17">
       <c r="B57" s="87"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:17">
       <c r="B58" s="87"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:17">
       <c r="B59" s="87"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:17">
       <c r="B60" s="87"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:17">
       <c r="B61" s="87"/>
     </row>
-    <row r="62" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" ht="17" thickBot="1">
       <c r="B62" s="87"/>
       <c r="C62" s="88"/>
       <c r="K62" s="88"/>
       <c r="L62" s="88"/>
       <c r="M62" s="88"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:17">
       <c r="B63" s="87"/>
       <c r="C63" s="88" t="s">
         <v>116</v>
@@ -5357,7 +5412,7 @@
       <c r="P63" s="144"/>
       <c r="Q63" s="145"/>
     </row>
-    <row r="64" spans="2:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" ht="19">
       <c r="B64" s="87"/>
       <c r="C64" s="88"/>
       <c r="D64" s="88"/>
@@ -5382,7 +5437,7 @@
       </c>
       <c r="Q64" s="148"/>
     </row>
-    <row r="65" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:17" ht="20" thickBot="1">
       <c r="B65" s="87"/>
       <c r="C65" s="88"/>
       <c r="D65" s="88"/>
@@ -5395,7 +5450,7 @@
       <c r="P65" s="150"/>
       <c r="Q65" s="151"/>
     </row>
-    <row r="66" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:17" ht="20" thickBot="1">
       <c r="B66" s="87"/>
       <c r="C66" s="88"/>
       <c r="D66" s="88"/>
@@ -5427,7 +5482,7 @@
       </c>
       <c r="Q66" s="151"/>
     </row>
-    <row r="67" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" ht="17" thickBot="1">
       <c r="B67" s="87"/>
       <c r="C67" s="88"/>
       <c r="D67" s="88"/>
@@ -5440,14 +5495,14 @@
       <c r="P67" s="156"/>
       <c r="Q67" s="157"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:17">
       <c r="B68" s="87"/>
       <c r="C68" s="88"/>
       <c r="K68" s="88"/>
       <c r="L68" s="88"/>
       <c r="M68" s="88"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:17">
       <c r="B69" s="87"/>
       <c r="C69" s="88" t="s">
         <v>78</v>
@@ -5456,7 +5511,7 @@
       <c r="L69" s="88"/>
       <c r="M69" s="88"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:17">
       <c r="B70" s="87"/>
       <c r="C70" s="88"/>
       <c r="D70" s="80">
@@ -5466,7 +5521,7 @@
       <c r="L70" s="88"/>
       <c r="M70" s="88"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:17">
       <c r="B71" s="87"/>
       <c r="C71" s="88"/>
       <c r="E71" s="80">
@@ -5483,7 +5538,7 @@
       <c r="L71" s="88"/>
       <c r="M71" s="88"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:17">
       <c r="B72" s="87"/>
       <c r="C72" s="88"/>
       <c r="E72" s="80">
@@ -5496,14 +5551,14 @@
       <c r="L72" s="88"/>
       <c r="M72" s="88"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17">
       <c r="B73" s="87"/>
       <c r="C73" s="88"/>
       <c r="K73" s="88"/>
       <c r="L73" s="88"/>
       <c r="M73" s="88"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:17">
       <c r="B74" s="87"/>
       <c r="C74" s="88"/>
       <c r="E74" s="80" t="s">
@@ -5516,7 +5571,7 @@
       <c r="L74" s="88"/>
       <c r="M74" s="88"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:17">
       <c r="B75" s="87"/>
       <c r="C75" s="88"/>
       <c r="E75" s="80">
@@ -5530,7 +5585,7 @@
       <c r="L75" s="88"/>
       <c r="M75" s="88"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:17">
       <c r="B76" s="87"/>
       <c r="C76" s="88"/>
       <c r="E76" s="80">
@@ -5547,7 +5602,7 @@
       <c r="L76" s="88"/>
       <c r="M76" s="88"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17">
       <c r="B77" s="87"/>
       <c r="C77" s="88"/>
       <c r="E77" s="80">
@@ -5564,7 +5619,7 @@
       <c r="L77" s="88"/>
       <c r="M77" s="88"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:17">
       <c r="B78" s="87"/>
       <c r="C78" s="88"/>
       <c r="E78" s="80">
@@ -5578,7 +5633,7 @@
       <c r="L78" s="88"/>
       <c r="M78" s="88"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:17">
       <c r="B79" s="87"/>
       <c r="C79" s="88"/>
       <c r="E79" s="80">
@@ -5595,14 +5650,14 @@
       <c r="L79" s="88"/>
       <c r="M79" s="88"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17">
       <c r="B80" s="87"/>
       <c r="C80" s="88"/>
       <c r="K80" s="88"/>
       <c r="L80" s="88"/>
       <c r="M80" s="88"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13">
       <c r="B81" s="87"/>
       <c r="C81" s="88"/>
       <c r="E81" s="80" t="s">
@@ -5612,13 +5667,13 @@
       <c r="L81" s="88"/>
       <c r="M81" s="88"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13">
       <c r="B82" s="87"/>
       <c r="K82" s="88"/>
       <c r="L82" s="88"/>
       <c r="M82" s="88"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13">
       <c r="B83" s="87"/>
       <c r="C83" s="88"/>
       <c r="E83" s="80">
@@ -5635,7 +5690,7 @@
       <c r="L83" s="88"/>
       <c r="M83" s="88"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13">
       <c r="B84" s="87"/>
       <c r="C84" s="88"/>
       <c r="E84" s="158">
@@ -5649,7 +5704,7 @@
       <c r="L84" s="88"/>
       <c r="M84" s="88"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13">
       <c r="B85" s="87"/>
       <c r="C85" s="88"/>
       <c r="E85" s="80">
@@ -5666,13 +5721,13 @@
       <c r="L85" s="88"/>
       <c r="M85" s="88"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13">
       <c r="B86" s="87"/>
       <c r="K86" s="88"/>
       <c r="L86" s="88"/>
       <c r="M86" s="88"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13">
       <c r="B87" s="87"/>
       <c r="E87" s="80">
         <v>0</v>
@@ -5687,7 +5742,7 @@
       <c r="L87" s="88"/>
       <c r="M87" s="88"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13">
       <c r="B88" s="87"/>
       <c r="E88" s="80">
         <f>E87*1000000/E84</f>
@@ -5700,13 +5755,13 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13">
       <c r="B89" s="87"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13">
       <c r="B90" s="87"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13">
       <c r="B91" s="87"/>
       <c r="C91" s="88"/>
       <c r="E91" s="80">
@@ -5719,7 +5774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13">
       <c r="B92" s="87"/>
       <c r="C92" s="88"/>
       <c r="D92" s="88"/>
@@ -5731,7 +5786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13">
       <c r="B93" s="87"/>
       <c r="C93" s="88"/>
       <c r="E93" s="158">
@@ -5742,7 +5797,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13">
       <c r="B94" s="87"/>
       <c r="E94" s="80">
         <f>E92/E93</f>
@@ -5752,11 +5807,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13">
       <c r="B95" s="87"/>
       <c r="C95" s="88"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13">
       <c r="B96" s="87"/>
       <c r="C96" s="88"/>
       <c r="E96" s="80">
@@ -5770,7 +5825,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7">
       <c r="B97" s="87"/>
       <c r="C97" s="88"/>
       <c r="E97" s="80">
@@ -5784,10 +5839,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7">
       <c r="B98" s="87"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7">
       <c r="B99" s="87"/>
       <c r="E99" s="80">
         <f>E97*E94</f>
@@ -5800,19 +5855,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7">
       <c r="B100" s="87"/>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7">
       <c r="B101" s="87"/>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7">
       <c r="B102" s="87"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7">
       <c r="B103" s="87"/>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7">
       <c r="B104" s="87"/>
       <c r="E104" s="80">
         <f>E77</f>
@@ -5825,7 +5880,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7">
       <c r="B105" s="87"/>
       <c r="E105" s="80">
         <f>E104/365.25/24/3600</f>
@@ -5838,10 +5893,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7">
       <c r="B106" s="87"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7">
       <c r="B107" s="87"/>
       <c r="E107" s="80">
         <f>E47</f>
@@ -5851,10 +5906,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7">
       <c r="B108" s="87"/>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7">
       <c r="B109" s="87"/>
       <c r="E109" s="80">
         <f>E105/E107</f>
@@ -5867,22 +5922,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7">
       <c r="B110" s="87"/>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7">
       <c r="B111" s="87"/>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7">
       <c r="B112" s="87"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9">
       <c r="B113" s="87"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9">
       <c r="B114" s="87"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9">
       <c r="B115" s="87"/>
       <c r="C115" s="80" t="s">
         <v>161</v>
@@ -5897,7 +5952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9">
       <c r="B116" s="87"/>
       <c r="E116" s="80">
         <f>E115*0.01</f>
@@ -5910,22 +5965,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9">
       <c r="B117" s="87"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9">
       <c r="B118" s="87"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9">
       <c r="B119" s="87"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9">
       <c r="B120" s="87"/>
       <c r="G120" s="80" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9">
       <c r="B121" s="87"/>
       <c r="E121" s="80">
         <v>3</v>
@@ -5938,25 +5993,25 @@
       </c>
       <c r="H121" s="170"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9">
       <c r="B122" s="87"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:9">
       <c r="B123" s="87"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9">
       <c r="B124" s="87"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:9">
       <c r="B125" s="87"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:9">
       <c r="B126" s="87"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:9">
       <c r="B127" s="87"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:9">
       <c r="B128" s="87"/>
       <c r="E128" s="171">
         <v>8700</v>
@@ -5969,82 +6024,82 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:12">
       <c r="B129" s="87"/>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:12">
       <c r="B130" s="87"/>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:12">
       <c r="B131" s="87"/>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:12">
       <c r="B132" s="87"/>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:12">
       <c r="B133" s="87"/>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:12">
       <c r="B134" s="87"/>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:12">
       <c r="B135" s="87"/>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:12">
       <c r="B136" s="87"/>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:12">
       <c r="B137" s="87"/>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:12">
       <c r="B138" s="87"/>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:12">
       <c r="B139" s="87"/>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:12">
       <c r="B140" s="87"/>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:12">
       <c r="B141" s="87"/>
       <c r="J141" s="171"/>
       <c r="K141" s="171"/>
       <c r="L141" s="171"/>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:12">
       <c r="B142" s="87"/>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:12">
       <c r="B143" s="87"/>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:12">
       <c r="B144" s="87"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:2">
       <c r="B145" s="87"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:2">
       <c r="B146" s="87"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:2">
       <c r="B147" s="87"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:2">
       <c r="B148" s="87"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:2">
       <c r="B149" s="87"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:2">
       <c r="B150" s="87"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:2">
       <c r="B151" s="87"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:2">
       <c r="B152" s="87"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:2">
       <c r="B153" s="87"/>
     </row>
   </sheetData>
